--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5F176-26A5-4DAB-97C1-BF06300EDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A6F2D-CD4E-4A48-BC0F-4C4195BABC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,30 +247,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,9 +531,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -583,7 +562,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +592,7 @@
         <v xml:space="preserve">    90.8554572271386, 90.0884955752212, 87.905604719764, 87.5222969056826, 80.4545887075148, 59.0594209292468, 49.2076921080632,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +622,7 @@
         <v xml:space="preserve">    94.1592920353982, 93.1563421828909, 92.3598820058997, 88.2597600325262, 82.7751105113366, 60.002595178159, 46.4134637842888,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -673,7 +652,7 @@
         <v xml:space="preserve">    88.141592920354, 88.5250737463127, 87.3746312684366, 82.5958702064897, 71.9140303981868, 58.2669400254328, 45.4441647419095,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -703,7 +682,7 @@
         <v xml:space="preserve">    91.2389380530973, 91.1504424778761, 89.7050147492625, 84.6312684365782, 81.0340054844765, 45.8745317866072, 38.1473023123037,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -733,7 +712,7 @@
         <v xml:space="preserve">    94.9262536873156, 94.188790560472, 93.0088495575221, 85.722886876184, 72.2276144257303, 59.6123668889869, 41.1552868104395,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -763,7 +742,7 @@
         <v xml:space="preserve">    94.6017699115044, 92.6548672566372, 91.740412979351, 90.7966331888684, 78.7103694668639, 48.1254163098297, 36.7356984056956,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -793,7 +772,7 @@
         <v xml:space="preserve">    92.3598820058997, 91.622418879056, 91.6814159292035, 90.8259587020649, 84.9881919393766, 65.6375920206922, 59.7701537210529,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -823,7 +802,7 @@
         <v xml:space="preserve">    97.2566371681416, 97.1681415929203, 96.3126843657817, 90.8259587020649, 87.9658128530524, 63.1598889263748, 54.0881841538422,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -853,7 +832,7 @@
         <v xml:space="preserve">    97.5811209439528, 97.9351032448378, 96.3716814159292, 91.0619469026549, 80.9819289094196, 70.2005207657506, 55.5964151939031,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -883,7 +862,7 @@
         <v xml:space="preserve">    96.6076696165192, 96.2241887905605, 96.6076696165192, 90.4719764011799, 80.7771693526761, 58.0763674426249, 49.9725776174534,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -913,7 +892,7 @@
         <v xml:space="preserve">    91.9174041297935, 91.3864306784661, 90.6784660766962, 88.8200589970502, 77.095217086653, 57.5158954662238, 45.3730568603535,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -943,7 +922,7 @@
         <v xml:space="preserve">    96.6961651917404, 95.1327433628319, 93.834808259587, 91.0326213894584, 82.8912014809817, 58.8070831062552, 50.4402287217017,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -973,7 +952,7 @@
         <v xml:space="preserve">    92.0058997050147, 87.0796460176991, 85.575221238938, 83.9611069299907, 75.6362079256741, 64.0814366906288, 47.2802532893883,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +982,7 @@
         <v xml:space="preserve">    90.3244837758112, 88.9675516224189, 88.7315634218289, 85.6935613629876, 76.6413204266473, 49.3774167596606, 40.8552842152614,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1012,7 @@
         <v xml:space="preserve">    92.7728613569322, 87.3156342182891, 85.7525584131351, 80.4545887075148, 71.0547669097484, 56.5417520912811, 40.1218003615948,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1042,7 @@
         <v xml:space="preserve">    95.3097345132743, 93.1268436578171, 92.7728613569322, 91.3569321533923, 72.8000242216628, 59.4853761710741, 48.7582937568664,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1093,7 +1072,7 @@
         <v xml:space="preserve">    92.2713864306785, 91.7121255374181, 89.5587332070347, 80.4212839211412, 70.8208548516856, 62.5918909333126, 49.9713665343126,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1102,7 @@
         <v xml:space="preserve">    97.1091445427729, 95.0442477876106, 94.2182890855457, 90.2654867256637, 83.8094620195676, 73.0375695291482, 50.5257830950095,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1132,7 @@
         <v xml:space="preserve">    92.0648967551622, 92.5663716814159, 91.976401179941, 84.8381041358489, 75.992093357209, 57.9681485133954, 47.580601908321,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1162,7 @@
         <v xml:space="preserve">    88.9087275841487, 81.6519174041298, 82.2125623924082, 81.0327944013357, 76.3777368316335, 59.9795845984827, 49.5861555895812,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1192,7 @@
         <v xml:space="preserve">    94.5132743362832, 93.2155122449156, 92.0058997050147, 90.0626302995701, 84.1705378074205, 65.8742722687913, 50.5157484061281,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1222,7 @@
         <v xml:space="preserve">    92.0353982300885, 90.2654867256637, 89.9705014749263, 77.8804314916219, 64.7484839834255, 47.4351854254795, 35.9364700386681,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1252,7 @@
         <v xml:space="preserve">    93.3038348082596, 93.0383480825959, 90.353982300885, 82.1245858528188, 71.8710369466864, 47.0466872550801, 35.2939039265046,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1282,7 @@
         <v xml:space="preserve">    92.6843657817109, 91.976401179941, 90.117994100295, 83.9823008849557, 72.0504502634106, 53.9085978252407, 39.9291516362598,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1312,7 @@
         <v xml:space="preserve">    92.5958702064897, 87.2863087050926, 86.6080156402737, 84.9855967612176, 78.7367537781469, 66.9845759911418, 50.3763873389908,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1342,7 @@
         <v xml:space="preserve">    85.1917404129794, 84.5722713864307, 82.360055017777, 81.595342520264, 73.8387875327641, 60.5759565394164, 46.676009308039,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1372,7 @@
         <v xml:space="preserve">    85.5457227138643, 83.0973451327434, 80.3246567876885, 76.7324111800275, 68.2206593482643, 56.14892862395, 46.5773060320591,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1402,7 @@
         <v xml:space="preserve">    98.259587020649, 97.0796460176991, 97.7286135693215, 91.0324483775811, 87.0501474926254, 72.8933641294475, 65.2030726909402,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1432,7 @@
         <v xml:space="preserve">    98.7905604719764, 93.4218289085546, 92.3893805309735, 90.3834808259587, 83.7777143400894, 78.9149560117302, 75.1600792394398,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -1495,9 +1474,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1526,29 +1505,29 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>82.389380530973455</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>82.241887905604727</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>80.000173011877266</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>75.929376551700273</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>73.364388965302467</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>56.639503801936009</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2">
         <v>51.791451483144307</v>
       </c>
       <c r="L2" t="str">
@@ -1556,29 +1535,29 @@
         <v xml:space="preserve">    82.3893805309735, 82.2418879056047, 80.0001730118773, 75.9293765517003, 73.3643889653025, 56.639503801936, 51.7914514831443,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>94.365781710914447</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>94.837758112094406</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>93.097345132743357</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>93.038348082595874</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>90.737463126843664</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>66.159309336585949</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>44.941824756269519</v>
       </c>
       <c r="L3" t="str">
@@ -1586,29 +1565,29 @@
         <v xml:space="preserve">    94.3657817109144, 94.8377581120944, 93.0973451327434, 93.0383480825959, 90.7374631268437, 66.1593093365859, 44.9418247562695,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>88.525073746312685</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>89.410029498525063</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>89.410029498525063</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>90.058997050147497</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>88.230088495575217</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>71.640412114291649</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>58.574209119456057</v>
       </c>
       <c r="L4" t="str">
@@ -1616,29 +1595,29 @@
         <v xml:space="preserve">    88.5250737463127, 89.4100294985251, 89.4100294985251, 90.0589970501475, 88.2300884955752, 71.6404121142916, 58.5742091194561,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>86.637168141592923</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>84.454277286135692</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>81.686260261766975</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>77.414337494268977</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5">
         <v>69.236758103443805</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>52.83030130018426</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>49.123002794141819</v>
       </c>
       <c r="L5" t="str">
@@ -1646,29 +1625,29 @@
         <v xml:space="preserve">    86.6371681415929, 84.4542772861357, 81.686260261767, 77.414337494269, 69.2367581034438, 52.8303013001843, 49.1230027941418,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>92.212389380530979</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>94.808259587020643</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>93.657817109144545</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>87.407244007301102</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6">
         <v>84.848484848484844</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>46.912862568015292</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>44.46361992750802</v>
       </c>
       <c r="L6" t="str">
@@ -1676,29 +1655,29 @@
         <v xml:space="preserve">    92.212389380531, 94.8082595870206, 93.6578171091445, 87.4072440073011, 84.8484848484848, 46.9128625680153, 44.463619927508,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>86.755335253765182</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>89.498871097500839</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>84.572271386430685</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>76.117872991980903</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7">
         <v>77.182674590610645</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7">
         <v>48.700680801737043</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>34.807135009818417</v>
       </c>
       <c r="L7" t="str">
@@ -1706,29 +1685,29 @@
         <v xml:space="preserve">    86.7553352537652, 89.4988710975008, 84.5722713864307, 76.1178729919809, 77.1826745906106, 48.700680801737, 34.8071350098184,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>91.504424778761063</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>91.799410029498532</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>92.536873156342182</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>87.110009602159181</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8">
         <v>83.140165572366556</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>71.943874947015118</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>61.445946764245363</v>
       </c>
       <c r="L8" t="str">
@@ -1736,29 +1715,29 @@
         <v xml:space="preserve">    91.5044247787611, 91.7994100294985, 92.5368731563422, 87.1100096021592, 83.1401655723666, 71.9438749470151, 61.4459467642454,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>90.17699115044249</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>91.120943952802364</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>89.144542772861357</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>87.315634218289091</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9">
         <v>83.395790621026123</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>72.408411837472642</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>65.376257580082864</v>
       </c>
       <c r="L9" t="str">
@@ -1766,29 +1745,29 @@
         <v xml:space="preserve">    90.1769911504425, 91.1209439528024, 89.1445427728614, 87.3156342182891, 83.3957906210261, 72.4084118374726, 65.3762575800829,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>95.811209439528028</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>95.634218289085553</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>94.86725663716814</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>94.808259587020643</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10">
         <v>88.672566371681413</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10">
         <v>75.794859817126436</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>62.613084888277577</v>
       </c>
       <c r="L10" t="str">
@@ -1796,29 +1775,29 @@
         <v xml:space="preserve">    95.811209439528, 95.6342182890856, 94.8672566371681, 94.8082595870206, 88.6725663716814, 75.7948598171264, 62.6130848882776,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>94.100294985250741</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>95.309734513274336</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>94.159292035398238</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <v>92.359882005899706</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11">
         <v>91.061946902654867</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>73.363610411854779</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>67.889514615178328</v>
       </c>
       <c r="L11" t="str">
@@ -1826,29 +1805,29 @@
         <v xml:space="preserve">    94.1002949852507, 95.3097345132743, 94.1592920353982, 92.3598820058997, 91.0619469026549, 73.3636104118548, 67.8895146151783,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>90.235988200589972</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>89.587020648967552</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>88.407079646017706</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>87.935103244837762</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12">
         <v>86.25368731563421</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <v>69.141688076886481</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>66.860872498897052</v>
       </c>
       <c r="L12" t="str">
@@ -1856,29 +1835,29 @@
         <v xml:space="preserve">    90.23598820059, 89.5870206489676, 88.4070796460177, 87.9351032448378, 86.2536873156342, 69.1416880768865, 66.8608724988971,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>94.749262536873147</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>94.690265486725664</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>93.156342182890853</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>93.834808259587021</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13">
         <v>91.415929203539832</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13">
         <v>68.148080865751439</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>58.193150459779062</v>
       </c>
       <c r="L13" t="str">
@@ -1886,29 +1865,29 @@
         <v xml:space="preserve">    94.7492625368731, 94.6902654867257, 93.1563421828909, 93.834808259587, 91.4159292035398, 68.1480808657514, 58.1931504597791,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>92.30088495575221</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>92.359882005899706</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>82.477876106194685</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <v>78.554572271386434</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14">
         <v>81.946902654867259</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14">
         <v>55.740274569849227</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14">
         <v>39.357087864081869</v>
       </c>
       <c r="L14" t="str">
@@ -1916,29 +1895,29 @@
         <v xml:space="preserve">    92.3008849557522, 92.3598820058997, 82.4778761061947, 78.5545722713864, 81.9469026548673, 55.7402745698492, 39.3570878640819,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>90.324483775811217</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>89.912715507919614</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>89.20388584676337</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15">
         <v>75.86873588871876</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15">
         <v>71.110044204534645</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <v>54.320106575316387</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15">
         <v>50.657964169240223</v>
       </c>
       <c r="L15" t="str">
@@ -1946,29 +1925,29 @@
         <v xml:space="preserve">    90.3244837758112, 89.9127155079196, 89.2038858467634, 75.8687358887188, 71.1100442045346, 54.3201065753164, 50.6579641692402,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>88.407079646017706</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>89.675516224188783</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>88.761061946902657</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <v>86.991150442477874</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16">
         <v>84.483775811209426</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16">
         <v>52.376923675810353</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16">
         <v>44.75618301196377</v>
       </c>
       <c r="L16" t="str">
@@ -1976,29 +1955,29 @@
         <v xml:space="preserve">    88.4070796460177, 89.6755162241888, 88.7610619469027, 86.9911504424779, 84.4837758112094, 52.3769236758104, 44.7561830119638,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>94.070969472054259</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>93.21533923303835</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>95.103244837758112</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>93.864306784660769</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17">
         <v>90.914454277286126</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17">
         <v>67.733890431578132</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17">
         <v>56.865024783951412</v>
       </c>
       <c r="L17" t="str">
@@ -2006,29 +1985,29 @@
         <v xml:space="preserve">    94.0709694720543, 93.2153392330383, 95.1032448377581, 93.8643067846608, 90.9144542772861, 67.7338904315781, 56.8650247839514,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>95.309734513274336</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>93.805482746390538</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>94.100641009005273</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>94.129966522201755</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18">
         <v>91.032967413212916</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18">
         <v>77.734582479087194</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18">
         <v>70.205970639884441</v>
       </c>
       <c r="L18" t="str">
@@ -2036,29 +2015,29 @@
         <v xml:space="preserve">    95.3097345132743, 93.8054827463905, 94.1006410090053, 94.1299665222018, 91.0329674132129, 77.7345824790872, 70.2059706398844,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>96.224188790560476</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>95.486725663716811</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>95.840707964601762</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19">
         <v>95.929203539823021</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19">
         <v>93.334717428351453</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19">
         <v>75.566657151013416</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>47.995484390003377</v>
       </c>
       <c r="L19" t="str">
@@ -2066,29 +2045,29 @@
         <v xml:space="preserve">    96.2241887905605, 95.4867256637168, 95.8407079646018, 95.929203539823, 93.3347174283515, 75.5666571510134, 47.9954843900034,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>89.262536873156336</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>93.215512244915615</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>94.837758112094406</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>93.392503395358091</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20">
         <v>89.205442953658775</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20">
         <v>67.656294604624605</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20">
         <v>42.782896045813537</v>
       </c>
       <c r="L20" t="str">
@@ -2096,29 +2075,29 @@
         <v xml:space="preserve">    89.2625368731563, 93.2155122449156, 94.8377581120944, 93.3925033953581, 89.2054429536588, 67.6562946046246, 42.7828960458135,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>91.681415929203538</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>87.374631268436573</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>80.589970501474937</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21">
         <v>76.283185840707958</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21">
         <v>70.080450522928402</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21">
         <v>52.966029117898941</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21">
         <v>40.564624261455549</v>
       </c>
       <c r="L21" t="str">
@@ -2126,29 +2105,29 @@
         <v xml:space="preserve">    91.6814159292035, 87.3746312684366, 80.5899705014749, 76.283185840708, 70.0804505229284, 52.9660291178989, 40.5646242614555,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>94.424778761061958</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>94.808259587020643</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>93.716814159292042</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>94.778761061946895</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22">
         <v>91.713336620559005</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22">
         <v>71.764807654045441</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22">
         <v>51.115407572729858</v>
       </c>
       <c r="L22" t="str">
@@ -2156,29 +2135,29 @@
         <v xml:space="preserve">    94.424778761062, 94.8082595870206, 93.716814159292, 94.7787610619469, 91.713336620559, 71.7648076540454, 51.1154075727299,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>91.061946902654867</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>88.259587020648979</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>86.430678466076699</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23">
         <v>86.047197640118</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23">
         <v>82.272424501942055</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23">
         <v>65.554632825543464</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23">
         <v>56.985268038650851</v>
       </c>
       <c r="L23" t="str">
@@ -2186,29 +2165,29 @@
         <v xml:space="preserve">    91.0619469026549, 88.259587020649, 86.4306784660767, 86.047197640118, 82.2724245019421, 65.5546328255435, 56.9852680386509,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>94.12979351032449</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>94.041297935103245</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>94.189136584226503</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <v>92.183063867334496</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24">
         <v>85.842265071497167</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24">
         <v>60.25527902490505</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24">
         <v>54.397702402269921</v>
       </c>
       <c r="L24" t="str">
@@ -2216,29 +2195,29 @@
         <v xml:space="preserve">    94.1297935103245, 94.0412979351032, 94.1891365842265, 92.1830638673345, 85.8422650714972, 60.2552790249051, 54.3977024022699,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>92.094395280236</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>91.474926253687315</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>90.884955752212392</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25">
         <v>88.34808259587021</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25">
         <v>88.023598820058993</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <v>63.722091021548621</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25">
         <v>41.024576337165549</v>
       </c>
       <c r="L25" t="str">
@@ -2246,29 +2225,29 @@
         <v xml:space="preserve">    92.094395280236, 91.4749262536873, 90.8849557522124, 88.3480825958702, 88.023598820059, 63.7220910215486, 41.0245763371655,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>88.260106056280762</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>87.317710360816278</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>86.49365478940129</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26">
         <v>81.664547271170164</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26">
         <v>79.76046505592609</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26">
         <v>56.767705602989643</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26">
         <v>51.778562098288049</v>
       </c>
       <c r="L26" t="str">
@@ -2276,29 +2255,29 @@
         <v xml:space="preserve">    88.2601060562808, 87.3177103608163, 86.4936547894013, 81.6645472711702, 79.7604650559261, 56.7677056029896, 51.778562098288,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>85.722713864306783</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>85.811209439528028</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>86.224188790560476</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27">
         <v>84.985250737463133</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27">
         <v>84.011799410029496</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27">
         <v>61.975622626493298</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27">
         <v>51.524753674339742</v>
       </c>
       <c r="L27" t="str">
@@ -2306,29 +2285,29 @@
         <v xml:space="preserve">    85.7227138643068, 85.811209439528, 86.2241887905605, 84.9852507374631, 84.0117994100295, 61.9756226264933, 51.5247536743397,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>88.318584070796462</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>86.696165191740405</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>88.08259587020649</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28">
         <v>86.312684365781706</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28">
         <v>86.873156342182895</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28">
         <v>58.802930821200881</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28">
         <v>48.963918372996297</v>
       </c>
       <c r="L28" t="str">
@@ -2336,29 +2315,29 @@
         <v xml:space="preserve">    88.3185840707965, 86.6961651917404, 88.0825958702065, 86.3126843657817, 86.8731563421829, 58.8029308212009, 48.9639183729963,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>85.342866287770647</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>81.06575316395471</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>76.973589736935438</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29">
         <v>75.34944073910674</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29">
         <v>74.202804522530471</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <v>51.036081627003703</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29">
         <v>44.607306291576911</v>
       </c>
       <c r="L29" t="str">
@@ -2366,29 +2345,29 @@
         <v xml:space="preserve">    85.3428662877706, 81.0657531639547, 76.9735897369354, 75.3494407391067, 74.2028045225305, 51.0360816270037, 44.6073062915769,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>97.964601769911511</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>98.643067846607664</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>95.694426422373894</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30">
         <v>90.985389146964934</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30">
         <v>90.370591441102434</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30">
         <v>76.987776710871202</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30">
         <v>57.418403273384719</v>
       </c>
       <c r="L30" t="str">
@@ -2396,29 +2375,29 @@
         <v xml:space="preserve">    97.9646017699115, 98.6430678466077, 95.6944264223739, 90.9853891469649, 90.3705914411024, 76.9877767108712, 57.4184032733847,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>93.126843657817105</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>93.244837758112084</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>92.979351032448378</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31">
         <v>93.274509295063098</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31">
         <v>92.359882005899706</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31">
         <v>91.426136904298488</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31">
         <v>50.242735663803323</v>
       </c>
       <c r="L31" t="str">
@@ -2438,9 +2417,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2469,274 +2448,904 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>82.897083884808694</v>
+      </c>
+      <c r="D2">
+        <v>80.505800223185318</v>
+      </c>
+      <c r="E2">
+        <v>79.708821010562374</v>
+      </c>
+      <c r="F2">
+        <v>71.663682211783836</v>
+      </c>
+      <c r="G2">
+        <v>70.708224119585807</v>
+      </c>
+      <c r="H2">
+        <v>61.641536691493869</v>
+      </c>
+      <c r="I2">
+        <v>58.062699504320967</v>
+      </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v xml:space="preserve">    82.8970838848087, 80.5058002231853, 79.7088210105624, 71.6636822117838, 70.7082241195858, 61.6415366914939, 58.062699504321,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>93.392330383480825</v>
+      </c>
+      <c r="D3">
+        <v>93.864306784660769</v>
+      </c>
+      <c r="E3">
+        <v>93.539823008849552</v>
+      </c>
+      <c r="F3">
+        <v>93.657817109144545</v>
+      </c>
+      <c r="G3">
+        <v>92.595870206489678</v>
+      </c>
+      <c r="H3">
+        <v>81.195166048149218</v>
+      </c>
+      <c r="I3">
+        <v>65.468559416603938</v>
+      </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v xml:space="preserve">    93.3923303834808, 93.8643067846608, 93.5398230088496, 93.6578171091445, 92.5958702064897, 81.1951660481492, 65.4685594166039,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>87.227138643067846</v>
+      </c>
+      <c r="D4">
+        <v>87.787610619469021</v>
+      </c>
+      <c r="E4">
+        <v>87.787610619469021</v>
+      </c>
+      <c r="F4">
+        <v>87.581120943952811</v>
+      </c>
+      <c r="G4">
+        <v>85.756018650680375</v>
+      </c>
+      <c r="H4">
+        <v>69.30380020588413</v>
+      </c>
+      <c r="I4">
+        <v>58.927845396586477</v>
+      </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v xml:space="preserve">    87.2271386430678, 87.787610619469, 87.787610619469, 87.5811209439528, 85.7560186506804, 69.3038002058841, 58.9278453965865,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>88.525246758189951</v>
+      </c>
+      <c r="D5">
+        <v>88.525073746312685</v>
+      </c>
+      <c r="E5">
+        <v>88.407079646017706</v>
+      </c>
+      <c r="F5">
+        <v>88.702064896755161</v>
+      </c>
+      <c r="G5">
+        <v>83.807039853285929</v>
+      </c>
+      <c r="H5">
+        <v>72.803484459208121</v>
+      </c>
+      <c r="I5">
+        <v>60.966357840465747</v>
+      </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v xml:space="preserve">    88.52524675819, 88.5250737463127, 88.4070796460177, 88.7020648967552, 83.8070398532859, 72.8034844592081, 60.9663578404657,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>95.339233038348084</v>
+      </c>
+      <c r="D6">
+        <v>94.690265486725664</v>
+      </c>
+      <c r="E6">
+        <v>95.191740412979357</v>
+      </c>
+      <c r="F6">
+        <v>93.868805093469661</v>
+      </c>
+      <c r="G6">
+        <v>92.332978658984942</v>
+      </c>
+      <c r="H6">
+        <v>85.533698388394356</v>
+      </c>
+      <c r="I6">
+        <v>64.889315651519468</v>
+      </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v xml:space="preserve">    95.3392330383481, 94.6902654867257, 95.1917404129794, 93.8688050934697, 92.3329786589849, 85.5336983883944, 64.8893156515195,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>93.392330383480825</v>
+      </c>
+      <c r="D7">
+        <v>92.536873156342182</v>
+      </c>
+      <c r="E7">
+        <v>92.064896755162238</v>
+      </c>
+      <c r="F7">
+        <v>91.976401179941007</v>
+      </c>
+      <c r="G7">
+        <v>91.710914454277287</v>
+      </c>
+      <c r="H7">
+        <v>75.810603897957591</v>
+      </c>
+      <c r="I7">
+        <v>57.951106843484808</v>
+      </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v xml:space="preserve">    93.3923303834808, 92.5368731563422, 92.0648967551622, 91.976401179941, 91.7109144542773, 75.8106038979576, 57.9511068434848,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>96.430678466076699</v>
+      </c>
+      <c r="D8">
+        <v>96.312684365781706</v>
+      </c>
+      <c r="E8">
+        <v>96.371681415929203</v>
+      </c>
+      <c r="F8">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="G8">
+        <v>93.009022569399392</v>
+      </c>
+      <c r="H8">
+        <v>81.338333376586291</v>
+      </c>
+      <c r="I8">
+        <v>64.459900172146817</v>
+      </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v xml:space="preserve">    96.4306784660767, 96.3126843657817, 96.3716814159292, 96.0176991150443, 93.0090225693994, 81.3383333765863, 64.4599001721468,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>95.663716814159287</v>
+      </c>
+      <c r="D9">
+        <v>95.457227138643063</v>
+      </c>
+      <c r="E9">
+        <v>95.486725663716811</v>
+      </c>
+      <c r="F9">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="G9">
+        <v>89.530791788856305</v>
+      </c>
+      <c r="H9">
+        <v>83.436534918122135</v>
+      </c>
+      <c r="I9">
+        <v>62.131419821970781</v>
+      </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v xml:space="preserve">    95.6637168141593, 95.4572271386431, 95.4867256637168, 95.1032448377581, 89.5307917888563, 83.4365349181221, 62.1314198219708,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>95.191740412979357</v>
+      </c>
+      <c r="D10">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="E10">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="F10">
+        <v>94.985250737463133</v>
+      </c>
+      <c r="G10">
+        <v>94.837758112094392</v>
+      </c>
+      <c r="H10">
+        <v>84.081869220321977</v>
+      </c>
+      <c r="I10">
+        <v>73.037223505393655</v>
+      </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v xml:space="preserve">    95.1917404129794, 95.3687315634218, 95.7817109144543, 94.9852507374631, 94.8377581120944, 84.081869220322, 73.0372235053937,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>92.507374631268434</v>
+      </c>
+      <c r="D11">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="E11">
+        <v>92.212389380530979</v>
+      </c>
+      <c r="F11">
+        <v>92.419052067924468</v>
+      </c>
+      <c r="G11">
+        <v>89.242727013209461</v>
+      </c>
+      <c r="H11">
+        <v>78.431128296957581</v>
+      </c>
+      <c r="I11">
+        <v>64.450125001081318</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v xml:space="preserve">    92.5073746312684, 93.0383480825959, 92.212389380531, 92.4190520679245, 89.2427270132095, 78.4311282969576, 64.4501250010813,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>90.26548672566372</v>
+      </c>
+      <c r="D12">
+        <v>90.176991150442475</v>
+      </c>
+      <c r="E12">
+        <v>90.796460176991147</v>
+      </c>
+      <c r="F12">
+        <v>89.882005899705021</v>
+      </c>
+      <c r="G12">
+        <v>87.229387797472299</v>
+      </c>
+      <c r="H12">
+        <v>74.777809496621941</v>
+      </c>
+      <c r="I12">
+        <v>66.479121791710995</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v xml:space="preserve">    90.2654867256637, 90.1769911504425, 90.7964601769911, 89.882005899705, 87.2293877974723, 74.7778094966219, 66.479121791711,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>91.799410029498517</v>
+      </c>
+      <c r="D13">
+        <v>90.737463126843664</v>
+      </c>
+      <c r="E13">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="F13">
+        <v>90.265659737540972</v>
+      </c>
+      <c r="G13">
+        <v>86.431889549217559</v>
+      </c>
+      <c r="H13">
+        <v>69.83174594935943</v>
+      </c>
+      <c r="I13">
+        <v>61.551484009377248</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v xml:space="preserve">    91.7994100294985, 90.7374631268437, 91.5634218289086, 90.265659737541, 86.4318895492176, 69.8317459493594, 61.5514840093772,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>90.766961651917399</v>
+      </c>
+      <c r="D14">
+        <v>90.589970501474937</v>
+      </c>
+      <c r="E14">
+        <v>90.235988200589972</v>
+      </c>
+      <c r="F14">
+        <v>89.233038348082601</v>
+      </c>
+      <c r="G14">
+        <v>88.259587020648979</v>
+      </c>
+      <c r="H14">
+        <v>67.97143573906348</v>
+      </c>
+      <c r="I14">
+        <v>60.13763094836461</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v xml:space="preserve">    90.7669616519174, 90.5899705014749, 90.23598820059, 89.2330383480826, 88.259587020649, 67.9714357390635, 60.1376309483646,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>88.171610481059517</v>
+      </c>
+      <c r="D15">
+        <v>89.144542772861357</v>
+      </c>
+      <c r="E15">
+        <v>89.380530973451329</v>
+      </c>
+      <c r="F15">
+        <v>88.643067846607664</v>
+      </c>
+      <c r="G15">
+        <v>88.230088495575231</v>
+      </c>
+      <c r="H15">
+        <v>68.324899004316649</v>
+      </c>
+      <c r="I15">
+        <v>51.391101999152241</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v xml:space="preserve">    88.1716104810595, 89.1445427728614, 89.3805309734513, 88.6430678466077, 88.2300884955752, 68.3248990043166, 51.3911019991522,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>91.946902654867259</v>
+      </c>
+      <c r="D16">
+        <v>92.094395280235986</v>
+      </c>
+      <c r="E16">
+        <v>92.772861356932154</v>
+      </c>
+      <c r="F16">
+        <v>90.589970501474937</v>
+      </c>
+      <c r="G16">
+        <v>82.009359942560053</v>
+      </c>
+      <c r="H16">
+        <v>69.171532625714761</v>
+      </c>
+      <c r="I16">
+        <v>53.989740395678169</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
+        <v xml:space="preserve">    91.9469026548673, 92.094395280236, 92.7728613569322, 90.5899705014749, 82.0093599425601, 69.1715326257148, 53.9897403956782,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>94.454277286135692</v>
+      </c>
+      <c r="D17">
+        <v>94.601769911504419</v>
+      </c>
+      <c r="E17">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="F17">
+        <v>93.598820058997063</v>
+      </c>
+      <c r="G17">
+        <v>92.654867256637175</v>
+      </c>
+      <c r="H17">
+        <v>79.393506864246234</v>
+      </c>
+      <c r="I17">
+        <v>57.014420539970068</v>
+      </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+        <v xml:space="preserve">    94.4542772861357, 94.6017699115044, 94.2182890855457, 93.5988200589971, 92.6548672566372, 79.3935068642462, 57.0144205399701,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>90.501820950008224</v>
+      </c>
+      <c r="D18">
+        <v>91.533923303834811</v>
+      </c>
+      <c r="E18">
+        <v>91.180114014827126</v>
+      </c>
+      <c r="F18">
+        <v>90.412979351032448</v>
+      </c>
+      <c r="G18">
+        <v>89.237017621259696</v>
+      </c>
+      <c r="H18">
+        <v>77.606380678033545</v>
+      </c>
+      <c r="I18">
+        <v>65.395288886582065</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v xml:space="preserve">    90.5018209500082, 91.5339233038348, 91.1801140148271, 90.4129793510324, 89.2370176212597, 77.6063806780335, 65.3952888865821,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>95.634218289085553</v>
+      </c>
+      <c r="D19">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="E19">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="F19">
+        <v>94.631268436578168</v>
+      </c>
+      <c r="G19">
+        <v>90.413152362909713</v>
+      </c>
+      <c r="H19">
+        <v>85.166221161082703</v>
+      </c>
+      <c r="I19">
+        <v>77.340547928615294</v>
+      </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v xml:space="preserve">    95.6342182890856, 95.3687315634218, 95.3687315634218, 94.6312684365782, 90.4131523629097, 85.1662211610827, 77.3405479286153,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>92.537219180096713</v>
+      </c>
+      <c r="D20">
+        <v>94.159465047275489</v>
+      </c>
+      <c r="E20">
+        <v>93.510324483775804</v>
+      </c>
+      <c r="F20">
+        <v>93.575376949627596</v>
+      </c>
+      <c r="G20">
+        <v>90.236507236221769</v>
+      </c>
+      <c r="H20">
+        <v>69.425687073417592</v>
+      </c>
+      <c r="I20">
+        <v>54.571579338921623</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v xml:space="preserve">    92.5372191800967, 94.1594650472755, 93.5103244837758, 93.5753769496276, 90.2365072362218, 69.4256870734176, 54.5715793389216,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>87.787610619469021</v>
+      </c>
+      <c r="D21">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="E21">
+        <v>84.955752212389385</v>
+      </c>
+      <c r="F21">
+        <v>84.454277286135692</v>
+      </c>
+      <c r="G21">
+        <v>80.21237207934324</v>
+      </c>
+      <c r="H21">
+        <v>56.750317909324473</v>
+      </c>
+      <c r="I21">
+        <v>47.879047396603781</v>
+      </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v xml:space="preserve">    87.787610619469, 84.2182890855457, 84.9557522123894, 84.4542772861357, 80.2123720793432, 56.7503179093245, 47.8790473966038,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>88.938053097345133</v>
+      </c>
+      <c r="D22">
+        <v>88.731736433706175</v>
+      </c>
+      <c r="E22">
+        <v>88.141592920353986</v>
+      </c>
+      <c r="F22">
+        <v>89.557522123893804</v>
+      </c>
+      <c r="G22">
+        <v>87.138989091601132</v>
+      </c>
+      <c r="H22">
+        <v>74.505748319622143</v>
+      </c>
+      <c r="I22">
+        <v>54.62348290210123</v>
+      </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v xml:space="preserve">    88.9380530973451, 88.7317364337062, 88.141592920354, 89.5575221238938, 87.1389890916011, 74.5057483196221, 54.6234829021012,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
+      <c r="C23">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="D23">
+        <v>85.221238938053091</v>
+      </c>
+      <c r="E23">
+        <v>86.902654867256643</v>
+      </c>
+      <c r="F23">
+        <v>84.542772861356937</v>
+      </c>
+      <c r="G23">
+        <v>81.301568352667417</v>
+      </c>
+      <c r="H23">
+        <v>64.526855768648517</v>
+      </c>
+      <c r="I23">
+        <v>53.15426604036368</v>
+      </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v xml:space="preserve">    85.8702064896755, 85.2212389380531, 86.9026548672566, 84.5427728613569, 81.3015683526674, 64.5268557686485, 53.1542660403637,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
+      <c r="C24">
+        <v>90.353982300884951</v>
+      </c>
+      <c r="D24">
+        <v>89.233038348082601</v>
+      </c>
+      <c r="E24">
+        <v>90.147492625368727</v>
+      </c>
+      <c r="F24">
+        <v>89.675516224188783</v>
+      </c>
+      <c r="G24">
+        <v>86.963555048054047</v>
+      </c>
+      <c r="H24">
+        <v>77.782333757212427</v>
+      </c>
+      <c r="I24">
+        <v>68.642981340669024</v>
+      </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v xml:space="preserve">    90.353982300885, 89.2330383480826, 90.1474926253687, 89.6755162241888, 86.963555048054, 77.7823337572124, 68.642981340669,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="C25">
+        <v>89.705014749262531</v>
+      </c>
+      <c r="D25">
+        <v>89.587020648967552</v>
+      </c>
+      <c r="E25">
+        <v>89.852507374631273</v>
+      </c>
+      <c r="F25">
+        <v>89.73451327433628</v>
+      </c>
+      <c r="G25">
+        <v>83.61041185477383</v>
+      </c>
+      <c r="H25">
+        <v>70.41531501137554</v>
+      </c>
+      <c r="I25">
+        <v>59.51989204058858</v>
+      </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v xml:space="preserve">    89.7050147492625, 89.5870206489676, 89.8525073746313, 89.7345132743363, 83.6104118547738, 70.4153150113755, 59.5198920405886,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
+      <c r="C26">
+        <v>89.882005899705021</v>
+      </c>
+      <c r="D26">
+        <v>89.793510324483776</v>
+      </c>
+      <c r="E26">
+        <v>88.34808259587021</v>
+      </c>
+      <c r="F26">
+        <v>87.374631268436573</v>
+      </c>
+      <c r="G26">
+        <v>86.292009446448489</v>
+      </c>
+      <c r="H26">
+        <v>79.015389406482754</v>
+      </c>
+      <c r="I26">
+        <v>49.746970129499388</v>
+      </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+        <v xml:space="preserve">    89.882005899705, 89.7935103244838, 88.3480825958702, 87.3746312684366, 86.2920094464485, 79.0153894064828, 49.7469701294994,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
+      <c r="C27">
+        <v>84.896755162241888</v>
+      </c>
+      <c r="D27">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="E27">
+        <v>83.775811209439524</v>
+      </c>
+      <c r="F27">
+        <v>83.982300884955748</v>
+      </c>
+      <c r="G27">
+        <v>83.070960821460389</v>
+      </c>
+      <c r="H27">
+        <v>69.017811572764472</v>
+      </c>
+      <c r="I27">
+        <v>62.597340807446429</v>
+      </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v xml:space="preserve">    84.8967551622419, 84.2182890855457, 83.7758112094395, 83.9823008849557, 83.0709608214604, 69.0178115727645, 62.5973408074464,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
+      <c r="C28">
+        <v>86.165191740412979</v>
+      </c>
+      <c r="D28">
+        <v>85.60471976401179</v>
+      </c>
+      <c r="E28">
+        <v>86.902654867256643</v>
+      </c>
+      <c r="F28">
+        <v>83.899687713561534</v>
+      </c>
+      <c r="G28">
+        <v>85.929895587332069</v>
+      </c>
+      <c r="H28">
+        <v>66.663119923182734</v>
+      </c>
+      <c r="I28">
+        <v>49.523006254379361</v>
+      </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v xml:space="preserve">    86.165191740413, 85.6047197640118, 86.9026548672566, 83.8996877135615, 85.9298955873321, 66.6631199231827, 49.5230062543794,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
+      <c r="C29">
+        <v>88.676718656735787</v>
+      </c>
+      <c r="D29">
+        <v>89.208384155572276</v>
+      </c>
+      <c r="E29">
+        <v>86.558534243375817</v>
+      </c>
+      <c r="F29">
+        <v>74.959817991505105</v>
+      </c>
+      <c r="G29">
+        <v>68.486059567989344</v>
+      </c>
+      <c r="H29">
+        <v>56.925405929117041</v>
+      </c>
+      <c r="I29">
+        <v>42.515852213254433</v>
+      </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v xml:space="preserve">    88.6767186567358, 89.2083841555723, 86.5585342433758, 74.9598179915051, 68.4860595679893, 56.925405929117, 42.5158522132544,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
+      <c r="C30">
+        <v>94.690611510480196</v>
+      </c>
+      <c r="D30">
+        <v>94.837758112094392</v>
+      </c>
+      <c r="E30">
+        <v>96.254379363143272</v>
+      </c>
+      <c r="F30">
+        <v>95.368731563421832</v>
+      </c>
+      <c r="G30">
+        <v>91.658145831711337</v>
+      </c>
+      <c r="H30">
+        <v>79.681139110199908</v>
+      </c>
+      <c r="I30">
+        <v>66.881028382598458</v>
+      </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v xml:space="preserve">    94.6906115104802, 94.8377581120944, 96.2543793631433, 95.3687315634218, 91.6581458317113, 79.6811391101999, 66.8810283825985,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
+      <c r="C31">
+        <v>86.312684365781706</v>
+      </c>
+      <c r="D31">
+        <v>87.197813129871363</v>
+      </c>
+      <c r="E31">
+        <v>88.318930094550993</v>
+      </c>
+      <c r="F31">
+        <v>85.193124507997481</v>
+      </c>
+      <c r="G31">
+        <v>85.399095147881894</v>
+      </c>
+      <c r="H31">
+        <v>69.569892473118273</v>
+      </c>
+      <c r="I31">
+        <v>53.295962767844017</v>
+      </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
+        <v xml:space="preserve">    86.3126843657817, 87.1978131298714, 88.318930094551, 85.1931245079975, 85.3990951478819, 69.5698924731183, 53.295962767844,</v>
       </c>
     </row>
   </sheetData>
@@ -2751,9 +3360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2782,29 +3391,29 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2">
         <v>89.587020648967552</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2">
         <v>89.410029498525105</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2">
         <v>90.383480825958699</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2">
         <v>84.867429649045405</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2">
         <v>84.926253687315636</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2">
         <v>73.398818328878278</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2">
         <v>54.876945302295013</v>
       </c>
       <c r="L2" t="str">
@@ -2812,29 +3421,29 @@
         <v xml:space="preserve">    89.5870206489676, 89.4100294985251, 90.3834808259587, 84.8674296490454, 84.9262536873156, 73.3988183288783, 54.876945302295,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <v>94.778761061946895</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3">
         <v>94.070796460176979</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3">
         <v>93.74631268436579</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3">
         <v>91.20961253990086</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <v>90.678639088573433</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3">
         <v>71.78314691303558</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3">
         <v>53.742160399311409</v>
       </c>
       <c r="L3" t="str">
@@ -2842,29 +3451,29 @@
         <v xml:space="preserve">    94.7787610619469, 94.070796460177, 93.7463126843658, 91.2096125399009, 90.6786390885734, 71.7831469130356, 53.7421603993114,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>87.020648967551622</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>87.964601769911511</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>86.666666666666657</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4">
         <v>86.755162241887916</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4">
         <v>82.440159516950843</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4">
         <v>60.803121134265872</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4">
         <v>53.760586164240181</v>
       </c>
       <c r="L4" t="str">
@@ -2872,29 +3481,29 @@
         <v xml:space="preserve">    87.0206489675516, 87.9646017699115, 86.6666666666667, 86.7551622418879, 82.4401595169508, 60.8031211342659, 53.7605861642402,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>91.622418879056042</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>91.268436578171091</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>90.560644988278455</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5">
         <v>84.86725663716814</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5">
         <v>80.891703215425736</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5">
         <v>55.396672981600183</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5">
         <v>48.498516423152452</v>
       </c>
       <c r="L5" t="str">
@@ -2902,29 +3511,29 @@
         <v xml:space="preserve">    91.622418879056, 91.2684365781711, 90.5606449882785, 84.8672566371681, 80.8917032154257, 55.3966729816002, 48.4985164231525,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>93.421828908554573</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6">
         <v>93.716814159292042</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
         <v>94.100294985250741</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6">
         <v>91.887905604719762</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>86.90300089101116</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6">
         <v>63.526155070545599</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6">
         <v>41.753388870145933</v>
       </c>
       <c r="L6" t="str">
@@ -2932,29 +3541,29 @@
         <v xml:space="preserve">    93.4218289085546, 93.716814159292, 94.1002949852507, 91.8879056047198, 86.9030008910112, 63.5261550705456, 41.7533888701459,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>91.770257528179314</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>91.475272277441846</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <v>91.888943675983356</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7">
         <v>81.041185477383024</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7">
         <v>79.864964229794367</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7">
         <v>48.993330392131419</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7">
         <v>43.499165217692187</v>
       </c>
       <c r="L7" t="str">
@@ -2962,29 +3571,29 @@
         <v xml:space="preserve">    91.7702575281793, 91.4752722774418, 91.8889436759834, 81.041185477383, 79.8649642297944, 48.9933303921314, 43.4991652176922,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>90.560471976401189</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>92.212389380530979</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>90.235988200589958</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8">
         <v>87.846780681493783</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>84.339916435263291</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8">
         <v>70.676822463862138</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8">
         <v>66.430937983892591</v>
       </c>
       <c r="L8" t="str">
@@ -2992,29 +3601,29 @@
         <v xml:space="preserve">    90.5604719764012, 92.212389380531, 90.23598820059, 87.8467806814938, 84.3399164352633, 70.6768224638621, 66.4309379838926,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>96.784833778838916</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>96.165191740412979</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>95.191740412979357</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>95.103244837758112</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9">
         <v>86.809920501042399</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9">
         <v>67.492538862792941</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9">
         <v>64.403498300158304</v>
       </c>
       <c r="L9" t="str">
@@ -3022,29 +3631,29 @@
         <v xml:space="preserve">    96.7848337788389, 96.165191740413, 95.1917404129794, 95.1032448377581, 86.8099205010424, 67.4925388627929, 64.4034983001583,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>97.69911504424779</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10">
         <v>98.08259587020649</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>97.050147492625371</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10">
         <v>92.448377581120937</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>88.584243808337447</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10">
         <v>64.014654106004372</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10">
         <v>65.632401664374271</v>
       </c>
       <c r="L10" t="str">
@@ -3052,29 +3661,29 @@
         <v xml:space="preserve">    97.6991150442478, 98.0825958702065, 97.0501474926254, 92.4483775811209, 88.5842438083374, 64.0146541060044, 65.6324016643743,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>94.955752212389385</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11">
         <v>94.188963572349252</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>95.899705014749259</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11">
         <v>92.891201480981664</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>90.914454277286126</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11">
         <v>76.781979082864041</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11">
         <v>47.907507850413943</v>
       </c>
       <c r="L11" t="str">
@@ -3082,29 +3691,29 @@
         <v xml:space="preserve">    94.9557522123894, 94.1889635723493, 95.8997050147493, 92.8912014809817, 90.9144542772861, 76.781979082864, 47.9075078504139,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>91.356932153392336</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12">
         <v>90.766961651917399</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>88.17109144542772</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12">
         <v>90.324483775811217</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>88.585108867723775</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12">
         <v>78.8030173271395</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12">
         <v>58.246957153608591</v>
       </c>
       <c r="L12" t="str">
@@ -3112,29 +3721,29 @@
         <v xml:space="preserve">    91.3569321533923, 90.7669616519174, 88.1710914454277, 90.3244837758112, 88.5851088677238, 78.8030173271395, 58.2469571536086,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>95.280235988200587</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13">
         <v>94.749262536873147</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>94.778761061946895</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13">
         <v>95.250910475004119</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>87.805084819072832</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13">
         <v>75.815967266152825</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13">
         <v>60.553032465678768</v>
       </c>
       <c r="L13" t="str">
@@ -3142,29 +3751,29 @@
         <v xml:space="preserve">    95.2802359882006, 94.7492625368731, 94.7787610619469, 95.2509104750041, 87.8050848190728, 75.8159672661528, 60.5530324656788,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>89.852507374631273</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14">
         <v>90.796460176991147</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>90.383480825958699</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14">
         <v>86.78466076696165</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14">
         <v>81.272069827593668</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14">
         <v>66.37955345634478</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14">
         <v>55.038884419415403</v>
       </c>
       <c r="L14" t="str">
@@ -3172,29 +3781,29 @@
         <v xml:space="preserve">    89.8525073746313, 90.7964601769911, 90.3834808259587, 86.7846607669617, 81.2720698275937, 66.3795534563448, 55.0388844194154,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>90.324483775811217</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15">
         <v>91.120943952802364</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15">
         <v>87.463126843657818</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15">
         <v>88.672566371681413</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15">
         <v>79.974307736226095</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15">
         <v>55.599702419571102</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15">
         <v>48.12489727419787</v>
       </c>
       <c r="L15" t="str">
@@ -3202,29 +3811,29 @@
         <v xml:space="preserve">    90.3244837758112, 91.1209439528024, 87.4631268436578, 88.6725663716814, 79.9743077362261, 55.5997024195711, 48.1248972741979,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16">
         <v>91.002949852507385</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16">
         <v>91.592920353982294</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16">
         <v>90.295850310123782</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16">
         <v>78.02567496258618</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16">
         <v>75.024091903909195</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16">
         <v>51.264111281239458</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16">
         <v>46.84677203089992</v>
       </c>
       <c r="L16" t="str">
@@ -3232,29 +3841,29 @@
         <v xml:space="preserve">    91.0029498525074, 91.5929203539823, 90.2958503101238, 78.0256749625862, 75.0240919039092, 51.2641112812395, 46.8467720308999,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17">
         <v>95.516224188790559</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17">
         <v>95.752212389380531</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>94.483775811209441</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17">
         <v>93.038348082595874</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17">
         <v>86.37375755845639</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17">
         <v>63.306343480479939</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17">
         <v>46.7204733604962</v>
       </c>
       <c r="L17" t="str">
@@ -3262,29 +3871,29 @@
         <v xml:space="preserve">    95.5162241887906, 95.7522123893805, 94.4837758112094, 93.0383480825959, 86.3737575584564, 63.3063434804799, 46.7204733604962,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>93.186013719841867</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18">
         <v>92.832031418956916</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18">
         <v>93.304007820136846</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18">
         <v>88.000674746321323</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18">
         <v>81.835656017785624</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18">
         <v>66.554814488014614</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18">
         <v>56.012508758726291</v>
       </c>
       <c r="L18" t="str">
@@ -3292,29 +3901,29 @@
         <v xml:space="preserve">    93.1860137198419, 92.8320314189569, 93.3040078201368, 88.0006747463213, 81.8356560177856, 66.5548144880146, 56.0125087587263,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>94.395280235988196</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19">
         <v>93.48082595870207</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <v>94.690265486725664</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19">
         <v>94.722532201835662</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19">
         <v>89.148695057915731</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19">
         <v>75.180754158772999</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19">
         <v>64.931011513940433</v>
       </c>
       <c r="L19" t="str">
@@ -3322,29 +3931,29 @@
         <v xml:space="preserve">    94.3952802359882, 93.4808259587021, 94.6902654867257, 94.7225322018357, 89.1486950579157, 75.180754158773, 64.9310115139404,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>93.923303834808252</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20">
         <v>95.60471976401179</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20">
         <v>94.926253687315636</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20">
         <v>93.421828908554573</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20">
         <v>89.88581216100485</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20">
         <v>71.769651986608878</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20">
         <v>55.62764383774946</v>
       </c>
       <c r="L20" t="str">
@@ -3352,29 +3961,29 @@
         <v xml:space="preserve">    93.9233038348083, 95.6047197640118, 94.9262536873156, 93.4218289085546, 89.8858121610048, 71.7696519866089, 55.6276438377495,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>89.498525073746322</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21">
         <v>90.796460176991147</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21">
         <v>89.793510324483776</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21">
         <v>85.725828078097564</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21">
         <v>75.692609797662612</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21">
         <v>64.418982863173554</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21">
         <v>53.701589114092677</v>
       </c>
       <c r="L21" t="str">
@@ -3382,29 +3991,29 @@
         <v xml:space="preserve">    89.4985250737463, 90.7964601769911, 89.7935103244838, 85.7258280780976, 75.6926097976626, 64.4189828631736, 53.7015891140927,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>92.654867256637175</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22">
         <v>93.74631268436579</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22">
         <v>93.21533923303835</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22">
         <v>92.419052067924468</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22">
         <v>88.187700585645217</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22">
         <v>77.398333895621931</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22">
         <v>70.505540705369427</v>
       </c>
       <c r="L22" t="str">
@@ -3412,29 +4021,29 @@
         <v xml:space="preserve">    92.6548672566372, 93.7463126843658, 93.2153392330383, 92.4190520679245, 88.1877005856452, 77.3983338956219, 70.5055407053694,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>90.707964601769916</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23">
         <v>91.504597790638329</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23">
         <v>89.764011799410028</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23">
         <v>90.206489675516224</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23">
         <v>85.165010077941844</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23">
         <v>61.403126324622193</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23">
         <v>45.392001660914033</v>
       </c>
       <c r="L23" t="str">
@@ -3442,29 +4051,29 @@
         <v xml:space="preserve">    90.7079646017699, 91.5045977906383, 89.76401179941, 90.2064896755162, 85.1650100779418, 61.4031263246222, 45.392001660914,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>88.023598820058993</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24">
         <v>89.85302641026307</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <v>91.327779652073119</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24">
         <v>90.324829799565734</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24">
         <v>78.502495696329561</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24">
         <v>56.976098409155803</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24">
         <v>49.186411647159566</v>
       </c>
       <c r="L24" t="str">
@@ -3472,29 +4081,29 @@
         <v xml:space="preserve">    88.023598820059, 89.8530264102631, 91.3277796520731, 90.3248297995657, 78.5024956963296, 56.9760984091558, 49.1864116471596,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>88.672566371681413</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25">
         <v>90.206489675516224</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <v>90.825958702064895</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25">
         <v>87.256637168141594</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25">
         <v>79.004662670092301</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25">
         <v>55.773406344345538</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25">
         <v>38.977759323177537</v>
       </c>
       <c r="L25" t="str">
@@ -3502,29 +4111,29 @@
         <v xml:space="preserve">    88.6725663716814, 90.2064896755162, 90.8259587020649, 87.2566371681416, 79.0046626700923, 55.7734063443455, 38.9777593231775,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26">
         <v>91.622418879056042</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26">
         <v>89.911504424778769</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <v>90.94412581423714</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26">
         <v>84.634036626614417</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26">
         <v>82.7761485826002</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26">
         <v>62.802619399821801</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26">
         <v>56.294691130546113</v>
       </c>
       <c r="L26" t="str">
@@ -3532,29 +4141,29 @@
         <v xml:space="preserve">    91.622418879056, 89.9115044247788, 90.9441258142371, 84.6340366266144, 82.7761485826002, 62.8026193998218, 56.2946911305461,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27">
         <v>83.333333333333329</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27">
         <v>82.772861356932154</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <v>83.421828908554573</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27">
         <v>79.440739106739684</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27">
         <v>72.33522781338938</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27">
         <v>64.339656917447385</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27">
         <v>60.643431171549921</v>
       </c>
       <c r="L27" t="str">
@@ -3562,29 +4171,29 @@
         <v xml:space="preserve">    83.3333333333333, 82.7728613569322, 83.4218289085546, 79.4407391067397, 72.3352278133894, 64.3396569174474, 60.6434311715499,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28">
         <v>81.862905388454919</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28">
         <v>84.011799410029496</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <v>83.451327433628322</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28">
         <v>82.359882005899706</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28">
         <v>80.066436560869903</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28">
         <v>57.908286403861617</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28">
         <v>52.144914748397483</v>
       </c>
       <c r="L28" t="str">
@@ -3592,29 +4201,29 @@
         <v xml:space="preserve">    81.8629053884549, 84.0117994100295, 83.4513274336283, 82.3598820058997, 80.0664365608699, 57.9082864038616, 52.1449147483975,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29">
         <v>98.879056047197636</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29">
         <v>97.69911504424779</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29">
         <v>97.817109144542769</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29">
         <v>97.728613569321539</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29">
         <v>92.508239690654776</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29">
         <v>69.171186601960216</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29">
         <v>58.419969030873972</v>
       </c>
       <c r="L29" t="str">
@@ -3622,29 +4231,29 @@
         <v xml:space="preserve">    98.8790560471976, 97.6991150442478, 97.8171091445428, 97.7286135693215, 92.5082396906548, 69.1711866019602, 58.419969030874,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30">
         <v>98.879056047197636</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30">
         <v>97.610619469026545</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30">
         <v>98.141592920353986</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30">
         <v>95.958702064896755</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30">
         <v>88.702064896755161</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30">
         <v>80.399051894912589</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30">
         <v>72.509883303488778</v>
       </c>
       <c r="L30" t="str">
@@ -3652,29 +4261,29 @@
         <v xml:space="preserve">    98.8790560471976, 97.6106194690265, 98.141592920354, 95.9587020648968, 88.7020648967552, 80.3990518949126, 72.5098833034888,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31">
         <v>98.790560471976406</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31">
         <v>99.085545722713874</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31">
         <v>98.879056047197636</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31">
         <v>98.259587020648979</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31">
         <v>98.379657263471131</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31">
         <v>94.791044905232752</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31">
         <v>88.61625100563154</v>
       </c>
       <c r="L31" t="str">
@@ -3694,9 +4303,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3725,29 +4334,29 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2">
         <v>88.967551622418881</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2">
         <v>89.469026548672574</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2">
         <v>91.179941002949846</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2">
         <v>87.758112094395273</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2">
         <v>79.125684478239435</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2">
         <v>73.949947663907125</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2">
         <v>62.487651277260177</v>
       </c>
       <c r="L2" t="str">
@@ -3755,29 +4364,29 @@
         <v xml:space="preserve">    88.9675516224189, 89.4690265486726, 91.1799410029498, 87.7581120943953, 79.1256844782394, 73.9499476639071, 62.4876512772602,</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3">
         <v>92.802359882005902</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>93.274336283185832</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3">
         <v>93.274336283185846</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3">
         <v>92.920353982300895</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3">
         <v>88.879056047197636</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3">
         <v>76.51060995337329</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3">
         <v>65.570722930129165</v>
       </c>
       <c r="L3" t="str">
@@ -3785,29 +4394,29 @@
         <v xml:space="preserve">    92.8023598820059, 93.2743362831858, 93.2743362831858, 92.9203539823009, 88.8790560471976, 76.5106099533733, 65.5707229301292,</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4">
         <v>89.528023598820056</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4">
         <v>87.846607669616517</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4">
         <v>88.554572271386434</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4">
         <v>86.342182890855469</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4">
         <v>81.386430678466084</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4">
         <v>69.376292182458329</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4">
         <v>60.332528828104053</v>
       </c>
       <c r="L4" t="str">
@@ -3815,29 +4424,29 @@
         <v xml:space="preserve">    89.5280235988201, 87.8466076696165, 88.5545722713864, 86.3421828908555, 81.3864306784661, 69.3762921824583, 60.3325288281041,</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5">
         <v>90.678466076696168</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>90.353982300884951</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5">
         <v>90.707964601769916</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5">
         <v>84.778761061946895</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5">
         <v>81.740585991228301</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5">
         <v>59.489009420496721</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5">
         <v>49.963061964203852</v>
       </c>
       <c r="L5" t="str">
@@ -3845,29 +4454,29 @@
         <v xml:space="preserve">    90.6784660766962, 90.353982300885, 90.7079646017699, 84.7787610619469, 81.7405859912283, 59.4890094204967, 49.9630619642039,</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6">
         <v>94.483775811209441</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6">
         <v>94.926253687315636</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6">
         <v>93.274336283185846</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <v>93.038348082595874</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6">
         <v>83.230564278237694</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6">
         <v>69.627159404493113</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6">
         <v>47.646346421681848</v>
       </c>
       <c r="L6" t="str">
@@ -3875,29 +4484,29 @@
         <v xml:space="preserve">    94.4837758112094, 94.9262536873156, 93.2743362831858, 93.0383480825959, 83.2305642782377, 69.6271594044931, 47.6463464216818,</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7">
         <v>93.74631268436579</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>90.619642038425937</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7">
         <v>87.345305755240105</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <v>85.722713864306783</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7">
         <v>80.533222605731879</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7">
         <v>59.697402226662859</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7">
         <v>43.9220927516674</v>
       </c>
       <c r="L7" t="str">
@@ -3905,29 +4514,29 @@
         <v xml:space="preserve">    93.7463126843658, 90.6196420384259, 87.3453057552401, 85.7227138643068, 80.5332226057319, 59.6974022266629, 43.9220927516674,</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8">
         <v>93.48082595870207</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>93.185840707964601</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8">
         <v>93.333333333333343</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8">
         <v>91.504424778761063</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8">
         <v>86.120554676078513</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8">
         <v>70.363065424441388</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8">
         <v>63.473905483611453</v>
       </c>
       <c r="L8" t="str">
@@ -3935,29 +4544,29 @@
         <v xml:space="preserve">    93.4808259587021, 93.1858407079646, 93.3333333333333, 91.5044247787611, 86.1205546760785, 70.3630654244414, 63.4739054836115,</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9">
         <v>97.168141592920364</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>97.876106194690266</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9">
         <v>93.510324483775804</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9">
         <v>92.890855457227147</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9">
         <v>87.16814159292035</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9">
         <v>70.120156748760806</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9">
         <v>55.638024550385389</v>
       </c>
       <c r="L9" t="str">
@@ -3965,29 +4574,29 @@
         <v xml:space="preserve">    97.1681415929204, 97.8761061946903, 93.5103244837758, 92.8908554572271, 87.1681415929203, 70.1201567487608, 55.6380245503854,</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10">
         <v>98.761061946902657</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>95.722713864306783</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10">
         <v>95.368731563421832</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <v>92.507374631268434</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10">
         <v>90.029498525073748</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10">
         <v>76.092094222268358</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10">
         <v>65.691571726399019</v>
       </c>
       <c r="L10" t="str">
@@ -3995,29 +4604,29 @@
         <v xml:space="preserve">    98.7610619469027, 95.7227138643068, 95.3687315634218, 92.5073746312684, 90.0294985250737, 76.0920942222684, 65.691571726399,</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11">
         <v>94.483775811209441</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>95.545722713864308</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11">
         <v>94.542772861356937</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <v>92.418879056047189</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11">
         <v>88.796269863926156</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11">
         <v>79.052327442278909</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11">
         <v>62.16974195278506</v>
       </c>
       <c r="L11" t="str">
@@ -4025,29 +4634,29 @@
         <v xml:space="preserve">    94.4837758112094, 95.5457227138643, 94.5427728613569, 92.4188790560472, 88.7962698639262, 79.0523274422789, 62.1697419527851,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12">
         <v>90.442477876106196</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12">
         <v>90.324483775811217</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12">
         <v>91.622418879056042</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <v>89.35103244837758</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12">
         <v>87.994100294985259</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12">
         <v>77.536310867741065</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12">
         <v>60.024654192510319</v>
       </c>
       <c r="L12" t="str">
@@ -4055,29 +4664,29 @@
         <v xml:space="preserve">    90.4424778761062, 90.3244837758112, 91.622418879056, 89.3510324483776, 87.9941002949853, 77.5363108677411, 60.0246541925103,</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13">
         <v>94.985250737463133</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13">
         <v>95.250737463126853</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13">
         <v>93.598820058997049</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <v>92.772861356932154</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13">
         <v>87.935795292346825</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13">
         <v>74.46214932655127</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13">
         <v>69.185200564018714</v>
       </c>
       <c r="L13" t="str">
@@ -4085,29 +4694,29 @@
         <v xml:space="preserve">    94.9852507374631, 95.2507374631269, 93.598820058997, 92.7728613569322, 87.9357952923468, 74.4621493265513, 69.1852005640187,</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14">
         <v>91.268436578171091</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14">
         <v>91.238938053097343</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14">
         <v>89.882005899705021</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14">
         <v>89.705014749262531</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14">
         <v>85.431188851114626</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14">
         <v>63.556172631251137</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14">
         <v>53.536881806936051</v>
       </c>
       <c r="L14" t="str">
@@ -4115,29 +4724,29 @@
         <v xml:space="preserve">    91.2684365781711, 91.2389380530973, 89.882005899705, 89.7050147492625, 85.4311888511146, 63.5561726312511, 53.5368818069361,</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15">
         <v>90.530973451327441</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15">
         <v>87.522123893805315</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15">
         <v>88.672566371681427</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15">
         <v>86.814159292035399</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15">
         <v>82.743535843735671</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15">
         <v>61.13469839704495</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15">
         <v>50.000865059386328</v>
       </c>
       <c r="L15" t="str">
@@ -4145,29 +4754,29 @@
         <v xml:space="preserve">    90.5309734513274, 87.5221238938053, 88.6725663716814, 86.8141592920354, 82.7435358437357, 61.134698397045, 50.0008650593863,</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16">
         <v>91.887905604719762</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16">
         <v>84.247960622496734</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16">
         <v>85.103244837758112</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <v>82.654867256637175</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16">
         <v>73.158245313540775</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16">
         <v>54.063010925700063</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16">
         <v>38.670317217276967</v>
       </c>
       <c r="L16" t="str">
@@ -4175,29 +4784,29 @@
         <v xml:space="preserve">    91.8879056047198, 84.2479606224967, 85.1032448377581, 82.6548672566372, 73.1582453135408, 54.0630109257001, 38.670317217277,</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>96.78466076696165</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17">
         <v>94.542772861356937</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17">
         <v>92.094395280236</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <v>91.120943952802364</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17">
         <v>89.503369406309744</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17">
         <v>76.742964904540699</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17">
         <v>55.463023036531453</v>
       </c>
       <c r="L17" t="str">
@@ -4205,29 +4814,29 @@
         <v xml:space="preserve">    96.7846607669617, 94.5427728613569, 92.094395280236, 91.1209439528024, 89.5033694063097, 76.7429649045407, 55.4630230365315,</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18">
         <v>93.156342182890853</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18">
         <v>93.156342182890853</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18">
         <v>91.445427728613566</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18">
         <v>89.085545722713874</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18">
         <v>74.96872810318429</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18">
         <v>71.836780594987843</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18">
         <v>58.818501890154756</v>
       </c>
       <c r="L18" t="str">
@@ -4235,29 +4844,29 @@
         <v xml:space="preserve">    93.1563421828909, 93.1563421828909, 91.4454277286136, 89.0855457227139, 74.9687281031843, 71.8367805949878, 58.8185018901548,</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19">
         <v>97.551622418879063</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19">
         <v>96.224188790560476</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>94.336283185840699</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19">
         <v>94.336283185840699</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19">
         <v>92.242060917481979</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19">
         <v>75.947888822567663</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19">
         <v>61.881936694954113</v>
       </c>
       <c r="L19" t="str">
@@ -4265,29 +4874,29 @@
         <v xml:space="preserve">    97.5516224188791, 96.2241887905605, 94.3362831858407, 94.3362831858407, 92.242060917482, 75.9478888225677, 61.8819366949541,</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20">
         <v>93.421828908554573</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20">
         <v>93.067846607669622</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>88.495575221238937</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <v>87.69911504424779</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20">
         <v>84.130312545956286</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20">
         <v>67.955518646355074</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20">
         <v>54.01015579719548</v>
       </c>
       <c r="L20" t="str">
@@ -4295,29 +4904,29 @@
         <v xml:space="preserve">    93.4218289085546, 93.0678466076696, 88.4955752212389, 87.6991150442478, 84.1303125459563, 67.9555186463551, 54.0101557971955,</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21">
         <v>91.858407079646014</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21">
         <v>86.578171091445427</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>83.775811209439524</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <v>82.713864306784657</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21">
         <v>74.415349613750976</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21">
         <v>53.617937871434883</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21">
         <v>45.788804401422148</v>
       </c>
       <c r="L21" t="str">
@@ -4325,29 +4934,29 @@
         <v xml:space="preserve">    91.858407079646, 86.5781710914454, 83.7758112094395, 82.7138643067847, 74.415349613751, 53.6179378714349, 45.7888044014221,</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22">
         <v>95.634218289085538</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22">
         <v>92.182890855457231</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22">
         <v>90.884955752212392</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22">
         <v>89.970501474926252</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22">
         <v>85.222450021193964</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22">
         <v>71.182103651415673</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22">
         <v>63.500116783017162</v>
       </c>
       <c r="L22" t="str">
@@ -4355,29 +4964,29 @@
         <v xml:space="preserve">    95.6342182890855, 92.1828908554572, 90.8849557522124, 89.9705014749263, 85.222450021194, 71.1821036514157, 63.5001167830172,</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23">
         <v>92.448377581120937</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23">
         <v>91.002949852507385</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23">
         <v>90.117994100294979</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23">
         <v>87.610619469026545</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23">
         <v>86.991150442477874</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23">
         <v>67.38215728509762</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23">
         <v>50.772844055744429</v>
       </c>
       <c r="L23" t="str">
@@ -4385,29 +4994,29 @@
         <v xml:space="preserve">    92.4483775811209, 91.0029498525074, 90.117994100295, 87.6106194690265, 86.9911504424779, 67.3821572850976, 50.7728440557444,</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24">
         <v>93.74631268436579</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24">
         <v>93.244837758112084</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24">
         <v>92.625368731563427</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24">
         <v>91.592920353982294</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24">
         <v>91.445427728613566</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24">
         <v>74.681528386923759</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24">
         <v>55.128072042145703</v>
       </c>
       <c r="L24" t="str">
@@ -4415,29 +5024,29 @@
         <v xml:space="preserve">    93.7463126843658, 93.2448377581121, 92.6253687315634, 91.5929203539823, 91.4454277286136, 74.6815283869238, 55.1280720421457,</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25">
         <v>94.247787610619469</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25">
         <v>91.887905604719762</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25">
         <v>94.041297935103245</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <v>91.091445427728615</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25">
         <v>88.377754132821224</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25">
         <v>76.050052336092875</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25">
         <v>54.481872680559533</v>
       </c>
       <c r="L25" t="str">
@@ -4445,29 +5054,29 @@
         <v xml:space="preserve">    94.2477876106195, 91.8879056047198, 94.0412979351032, 91.0914454277286, 88.3777541328212, 76.0500523360929, 54.4818726805595,</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26">
         <v>93.421828908554573</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26">
         <v>89.085545722713874</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26">
         <v>92.094395280236</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26">
         <v>89.174041297935105</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26">
         <v>88.141592920353986</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26">
         <v>61.13694755144941</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26">
         <v>52.333497694616732</v>
       </c>
       <c r="L26" t="str">
@@ -4475,29 +5084,29 @@
         <v xml:space="preserve">    93.4218289085546, 89.0855457227139, 92.094395280236, 89.1740412979351, 88.141592920354, 61.1369475514494, 52.3334976946167,</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27">
         <v>85.722713864306783</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27">
         <v>84.247787610619469</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27">
         <v>84.719764011799413</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27">
         <v>85.162241887905594</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27">
         <v>79.536847204560587</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27">
         <v>62.330989022396388</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27">
         <v>43.216031280547412</v>
       </c>
       <c r="L27" t="str">
@@ -4505,29 +5114,29 @@
         <v xml:space="preserve">    85.7227138643068, 84.2477876106195, 84.7197640117994, 85.1622418879056, 79.5368472045606, 62.3309890223964, 43.2160312805474,</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28">
         <v>87.43362831858407</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28">
         <v>85.280235988200587</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28">
         <v>86.666666666666657</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28">
         <v>86.755162241887916</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28">
         <v>83.511016531284866</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28">
         <v>63.964826685351952</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28">
         <v>55.663716814159287</v>
       </c>
       <c r="L28" t="str">
@@ -4535,29 +5144,29 @@
         <v xml:space="preserve">    87.4336283185841, 85.2802359882006, 86.6666666666667, 86.7551622418879, 83.5110165312849, 63.964826685352, 55.6637168141593,</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29">
         <v>98.289085545722713</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29">
         <v>96.961651917404126</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29">
         <v>95.13274336283186</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29">
         <v>93.30383480825958</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29">
         <v>90.97431638681995</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29">
         <v>77.109404060588759</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29">
         <v>67.762177873511021</v>
       </c>
       <c r="L29" t="str">
@@ -4565,29 +5174,29 @@
         <v xml:space="preserve">    98.2890855457227, 96.9616519174041, 95.1327433628319, 93.3038348082596, 90.97431638682, 77.1094040605888, 67.762177873511,</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30">
         <v>98.761061946902657</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30">
         <v>93.451327433628322</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30">
         <v>93.421828908554573</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30">
         <v>90.884955752212392</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30">
         <v>88.879056047197636</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30">
         <v>81.846555766053342</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30">
         <v>64.60756580939281</v>
       </c>
       <c r="L30" t="str">
@@ -4595,29 +5204,29 @@
         <v xml:space="preserve">    98.7610619469027, 93.4513274336283, 93.4218289085546, 90.8849557522124, 88.8790560471976, 81.8465557660533, 64.6075658093928,</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31">
         <v>96.991150442477874</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31">
         <v>98.230088495575217</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31">
         <v>96.755162241887916</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31">
         <v>93.657817109144545</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31">
         <v>94.041297935103245</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31">
         <v>79.108037266758373</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31">
         <v>65.329284855405319</v>
       </c>
       <c r="L31" t="str">

--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A6F2D-CD4E-4A48-BC0F-4C4195BABC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACB4AE-AE46-4AA4-A27F-615DD726884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,9 +531,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v xml:space="preserve">    90.8554572271386, 90.0884955752212, 87.905604719764, 87.5222969056826, 80.4545887075148, 59.0594209292468, 49.2076921080632,</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -622,7 +622,7 @@
         <v xml:space="preserve">    94.1592920353982, 93.1563421828909, 92.3598820058997, 88.2597600325262, 82.7751105113366, 60.002595178159, 46.4134637842888,</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -652,7 +652,7 @@
         <v xml:space="preserve">    88.141592920354, 88.5250737463127, 87.3746312684366, 82.5958702064897, 71.9140303981868, 58.2669400254328, 45.4441647419095,</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -682,7 +682,7 @@
         <v xml:space="preserve">    91.2389380530973, 91.1504424778761, 89.7050147492625, 84.6312684365782, 81.0340054844765, 45.8745317866072, 38.1473023123037,</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v xml:space="preserve">    94.9262536873156, 94.188790560472, 93.0088495575221, 85.722886876184, 72.2276144257303, 59.6123668889869, 41.1552868104395,</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -742,7 +742,7 @@
         <v xml:space="preserve">    94.6017699115044, 92.6548672566372, 91.740412979351, 90.7966331888684, 78.7103694668639, 48.1254163098297, 36.7356984056956,</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v xml:space="preserve">    92.3598820058997, 91.622418879056, 91.6814159292035, 90.8259587020649, 84.9881919393766, 65.6375920206922, 59.7701537210529,</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -802,7 +802,7 @@
         <v xml:space="preserve">    97.2566371681416, 97.1681415929203, 96.3126843657817, 90.8259587020649, 87.9658128530524, 63.1598889263748, 54.0881841538422,</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -832,7 +832,7 @@
         <v xml:space="preserve">    97.5811209439528, 97.9351032448378, 96.3716814159292, 91.0619469026549, 80.9819289094196, 70.2005207657506, 55.5964151939031,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -862,7 +862,7 @@
         <v xml:space="preserve">    96.6076696165192, 96.2241887905605, 96.6076696165192, 90.4719764011799, 80.7771693526761, 58.0763674426249, 49.9725776174534,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -892,7 +892,7 @@
         <v xml:space="preserve">    91.9174041297935, 91.3864306784661, 90.6784660766962, 88.8200589970502, 77.095217086653, 57.5158954662238, 45.3730568603535,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -922,7 +922,7 @@
         <v xml:space="preserve">    96.6961651917404, 95.1327433628319, 93.834808259587, 91.0326213894584, 82.8912014809817, 58.8070831062552, 50.4402287217017,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -952,7 +952,7 @@
         <v xml:space="preserve">    92.0058997050147, 87.0796460176991, 85.575221238938, 83.9611069299907, 75.6362079256741, 64.0814366906288, 47.2802532893883,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -982,7 +982,7 @@
         <v xml:space="preserve">    90.3244837758112, 88.9675516224189, 88.7315634218289, 85.6935613629876, 76.6413204266473, 49.3774167596606, 40.8552842152614,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v xml:space="preserve">    92.7728613569322, 87.3156342182891, 85.7525584131351, 80.4545887075148, 71.0547669097484, 56.5417520912811, 40.1218003615948,</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v xml:space="preserve">    95.3097345132743, 93.1268436578171, 92.7728613569322, 91.3569321533923, 72.8000242216628, 59.4853761710741, 48.7582937568664,</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v xml:space="preserve">    92.2713864306785, 91.7121255374181, 89.5587332070347, 80.4212839211412, 70.8208548516856, 62.5918909333126, 49.9713665343126,</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v xml:space="preserve">    97.1091445427729, 95.0442477876106, 94.2182890855457, 90.2654867256637, 83.8094620195676, 73.0375695291482, 50.5257830950095,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v xml:space="preserve">    92.0648967551622, 92.5663716814159, 91.976401179941, 84.8381041358489, 75.992093357209, 57.9681485133954, 47.580601908321,</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v xml:space="preserve">    88.9087275841487, 81.6519174041298, 82.2125623924082, 81.0327944013357, 76.3777368316335, 59.9795845984827, 49.5861555895812,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v xml:space="preserve">    94.5132743362832, 93.2155122449156, 92.0058997050147, 90.0626302995701, 84.1705378074205, 65.8742722687913, 50.5157484061281,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v xml:space="preserve">    92.0353982300885, 90.2654867256637, 89.9705014749263, 77.8804314916219, 64.7484839834255, 47.4351854254795, 35.9364700386681,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v xml:space="preserve">    93.3038348082596, 93.0383480825959, 90.353982300885, 82.1245858528188, 71.8710369466864, 47.0466872550801, 35.2939039265046,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v xml:space="preserve">    92.6843657817109, 91.976401179941, 90.117994100295, 83.9823008849557, 72.0504502634106, 53.9085978252407, 39.9291516362598,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v xml:space="preserve">    92.5958702064897, 87.2863087050926, 86.6080156402737, 84.9855967612176, 78.7367537781469, 66.9845759911418, 50.3763873389908,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v xml:space="preserve">    85.1917404129794, 84.5722713864307, 82.360055017777, 81.595342520264, 73.8387875327641, 60.5759565394164, 46.676009308039,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v xml:space="preserve">    85.5457227138643, 83.0973451327434, 80.3246567876885, 76.7324111800275, 68.2206593482643, 56.14892862395, 46.5773060320591,</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v xml:space="preserve">    98.259587020649, 97.0796460176991, 97.7286135693215, 91.0324483775811, 87.0501474926254, 72.8933641294475, 65.2030726909402,</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v xml:space="preserve">    98.7905604719764, 93.4218289085546, 92.3893805309735, 90.3834808259587, 83.7777143400894, 78.9149560117302, 75.1600792394398,</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -1474,9 +1474,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v xml:space="preserve">    82.3893805309735, 82.2418879056047, 80.0001730118773, 75.9293765517003, 73.3643889653025, 56.639503801936, 51.7914514831443,</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v xml:space="preserve">    94.3657817109144, 94.8377581120944, 93.0973451327434, 93.0383480825959, 90.7374631268437, 66.1593093365859, 44.9418247562695,</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v xml:space="preserve">    88.5250737463127, 89.4100294985251, 89.4100294985251, 90.0589970501475, 88.2300884955752, 71.6404121142916, 58.5742091194561,</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v xml:space="preserve">    86.6371681415929, 84.4542772861357, 81.686260261767, 77.414337494269, 69.2367581034438, 52.8303013001843, 49.1230027941418,</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v xml:space="preserve">    92.212389380531, 94.8082595870206, 93.6578171091445, 87.4072440073011, 84.8484848484848, 46.9128625680153, 44.463619927508,</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v xml:space="preserve">    86.7553352537652, 89.4988710975008, 84.5722713864307, 76.1178729919809, 77.1826745906106, 48.700680801737, 34.8071350098184,</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v xml:space="preserve">    91.5044247787611, 91.7994100294985, 92.5368731563422, 87.1100096021592, 83.1401655723666, 71.9438749470151, 61.4459467642454,</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v xml:space="preserve">    90.1769911504425, 91.1209439528024, 89.1445427728614, 87.3156342182891, 83.3957906210261, 72.4084118374726, 65.3762575800829,</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v xml:space="preserve">    95.811209439528, 95.6342182890856, 94.8672566371681, 94.8082595870206, 88.6725663716814, 75.7948598171264, 62.6130848882776,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v xml:space="preserve">    94.1002949852507, 95.3097345132743, 94.1592920353982, 92.3598820058997, 91.0619469026549, 73.3636104118548, 67.8895146151783,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v xml:space="preserve">    90.23598820059, 89.5870206489676, 88.4070796460177, 87.9351032448378, 86.2536873156342, 69.1416880768865, 66.8608724988971,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v xml:space="preserve">    94.7492625368731, 94.6902654867257, 93.1563421828909, 93.834808259587, 91.4159292035398, 68.1480808657514, 58.1931504597791,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v xml:space="preserve">    92.3008849557522, 92.3598820058997, 82.4778761061947, 78.5545722713864, 81.9469026548673, 55.7402745698492, 39.3570878640819,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v xml:space="preserve">    90.3244837758112, 89.9127155079196, 89.2038858467634, 75.8687358887188, 71.1100442045346, 54.3201065753164, 50.6579641692402,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v xml:space="preserve">    88.4070796460177, 89.6755162241888, 88.7610619469027, 86.9911504424779, 84.4837758112094, 52.3769236758104, 44.7561830119638,</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v xml:space="preserve">    94.0709694720543, 93.2153392330383, 95.1032448377581, 93.8643067846608, 90.9144542772861, 67.7338904315781, 56.8650247839514,</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v xml:space="preserve">    95.3097345132743, 93.8054827463905, 94.1006410090053, 94.1299665222018, 91.0329674132129, 77.7345824790872, 70.2059706398844,</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v xml:space="preserve">    96.2241887905605, 95.4867256637168, 95.8407079646018, 95.929203539823, 93.3347174283515, 75.5666571510134, 47.9954843900034,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v xml:space="preserve">    89.2625368731563, 93.2155122449156, 94.8377581120944, 93.3925033953581, 89.2054429536588, 67.6562946046246, 42.7828960458135,</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v xml:space="preserve">    91.6814159292035, 87.3746312684366, 80.5899705014749, 76.283185840708, 70.0804505229284, 52.9660291178989, 40.5646242614555,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v xml:space="preserve">    94.424778761062, 94.8082595870206, 93.716814159292, 94.7787610619469, 91.713336620559, 71.7648076540454, 51.1154075727299,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v xml:space="preserve">    91.0619469026549, 88.259587020649, 86.4306784660767, 86.047197640118, 82.2724245019421, 65.5546328255435, 56.9852680386509,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v xml:space="preserve">    94.1297935103245, 94.0412979351032, 94.1891365842265, 92.1830638673345, 85.8422650714972, 60.2552790249051, 54.3977024022699,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v xml:space="preserve">    92.094395280236, 91.4749262536873, 90.8849557522124, 88.3480825958702, 88.023598820059, 63.7220910215486, 41.0245763371655,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v xml:space="preserve">    88.2601060562808, 87.3177103608163, 86.4936547894013, 81.6645472711702, 79.7604650559261, 56.7677056029896, 51.778562098288,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v xml:space="preserve">    85.7227138643068, 85.811209439528, 86.2241887905605, 84.9852507374631, 84.0117994100295, 61.9756226264933, 51.5247536743397,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v xml:space="preserve">    88.3185840707965, 86.6961651917404, 88.0825958702065, 86.3126843657817, 86.8731563421829, 58.8029308212009, 48.9639183729963,</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v xml:space="preserve">    85.3428662877706, 81.0657531639547, 76.9735897369354, 75.3494407391067, 74.2028045225305, 51.0360816270037, 44.6073062915769,</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v xml:space="preserve">    97.9646017699115, 98.6430678466077, 95.6944264223739, 90.9853891469649, 90.3705914411024, 76.9877767108712, 57.4184032733847,</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -2417,9 +2417,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v xml:space="preserve">    82.8970838848087, 80.5058002231853, 79.7088210105624, 71.6636822117838, 70.7082241195858, 61.6415366914939, 58.062699504321,</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v xml:space="preserve">    93.3923303834808, 93.8643067846608, 93.5398230088496, 93.6578171091445, 92.5958702064897, 81.1951660481492, 65.4685594166039,</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v xml:space="preserve">    87.2271386430678, 87.787610619469, 87.787610619469, 87.5811209439528, 85.7560186506804, 69.3038002058841, 58.9278453965865,</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v xml:space="preserve">    88.52524675819, 88.5250737463127, 88.4070796460177, 88.7020648967552, 83.8070398532859, 72.8034844592081, 60.9663578404657,</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v xml:space="preserve">    95.3392330383481, 94.6902654867257, 95.1917404129794, 93.8688050934697, 92.3329786589849, 85.5336983883944, 64.8893156515195,</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v xml:space="preserve">    93.3923303834808, 92.5368731563422, 92.0648967551622, 91.976401179941, 91.7109144542773, 75.8106038979576, 57.9511068434848,</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v xml:space="preserve">    96.4306784660767, 96.3126843657817, 96.3716814159292, 96.0176991150443, 93.0090225693994, 81.3383333765863, 64.4599001721468,</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v xml:space="preserve">    95.6637168141593, 95.4572271386431, 95.4867256637168, 95.1032448377581, 89.5307917888563, 83.4365349181221, 62.1314198219708,</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v xml:space="preserve">    95.1917404129794, 95.3687315634218, 95.7817109144543, 94.9852507374631, 94.8377581120944, 84.081869220322, 73.0372235053937,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v xml:space="preserve">    92.5073746312684, 93.0383480825959, 92.212389380531, 92.4190520679245, 89.2427270132095, 78.4311282969576, 64.4501250010813,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v xml:space="preserve">    90.2654867256637, 90.1769911504425, 90.7964601769911, 89.882005899705, 87.2293877974723, 74.7778094966219, 66.479121791711,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v xml:space="preserve">    91.7994100294985, 90.7374631268437, 91.5634218289086, 90.265659737541, 86.4318895492176, 69.8317459493594, 61.5514840093772,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v xml:space="preserve">    90.7669616519174, 90.5899705014749, 90.23598820059, 89.2330383480826, 88.259587020649, 67.9714357390635, 60.1376309483646,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v xml:space="preserve">    88.1716104810595, 89.1445427728614, 89.3805309734513, 88.6430678466077, 88.2300884955752, 68.3248990043166, 51.3911019991522,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v xml:space="preserve">    91.9469026548673, 92.094395280236, 92.7728613569322, 90.5899705014749, 82.0093599425601, 69.1715326257148, 53.9897403956782,</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v xml:space="preserve">    94.4542772861357, 94.6017699115044, 94.2182890855457, 93.5988200589971, 92.6548672566372, 79.3935068642462, 57.0144205399701,</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v xml:space="preserve">    90.5018209500082, 91.5339233038348, 91.1801140148271, 90.4129793510324, 89.2370176212597, 77.6063806780335, 65.3952888865821,</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v xml:space="preserve">    95.6342182890856, 95.3687315634218, 95.3687315634218, 94.6312684365782, 90.4131523629097, 85.1662211610827, 77.3405479286153,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v xml:space="preserve">    92.5372191800967, 94.1594650472755, 93.5103244837758, 93.5753769496276, 90.2365072362218, 69.4256870734176, 54.5715793389216,</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v xml:space="preserve">    87.787610619469, 84.2182890855457, 84.9557522123894, 84.4542772861357, 80.2123720793432, 56.7503179093245, 47.8790473966038,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v xml:space="preserve">    88.9380530973451, 88.7317364337062, 88.141592920354, 89.5575221238938, 87.1389890916011, 74.5057483196221, 54.6234829021012,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v xml:space="preserve">    85.8702064896755, 85.2212389380531, 86.9026548672566, 84.5427728613569, 81.3015683526674, 64.5268557686485, 53.1542660403637,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v xml:space="preserve">    90.353982300885, 89.2330383480826, 90.1474926253687, 89.6755162241888, 86.963555048054, 77.7823337572124, 68.642981340669,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v xml:space="preserve">    89.7050147492625, 89.5870206489676, 89.8525073746313, 89.7345132743363, 83.6104118547738, 70.4153150113755, 59.5198920405886,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v xml:space="preserve">    89.882005899705, 89.7935103244838, 88.3480825958702, 87.3746312684366, 86.2920094464485, 79.0153894064828, 49.7469701294994,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v xml:space="preserve">    84.8967551622419, 84.2182890855457, 83.7758112094395, 83.9823008849557, 83.0709608214604, 69.0178115727645, 62.5973408074464,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v xml:space="preserve">    86.165191740413, 85.6047197640118, 86.9026548672566, 83.8996877135615, 85.9298955873321, 66.6631199231827, 49.5230062543794,</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v xml:space="preserve">    88.6767186567358, 89.2083841555723, 86.5585342433758, 74.9598179915051, 68.4860595679893, 56.925405929117, 42.5158522132544,</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v xml:space="preserve">    94.6906115104802, 94.8377581120944, 96.2543793631433, 95.3687315634218, 91.6581458317113, 79.6811391101999, 66.8810283825985,</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3360,9 +3360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v xml:space="preserve">    89.5870206489676, 89.4100294985251, 90.3834808259587, 84.8674296490454, 84.9262536873156, 73.3988183288783, 54.876945302295,</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v xml:space="preserve">    94.7787610619469, 94.070796460177, 93.7463126843658, 91.2096125399009, 90.6786390885734, 71.7831469130356, 53.7421603993114,</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v xml:space="preserve">    87.0206489675516, 87.9646017699115, 86.6666666666667, 86.7551622418879, 82.4401595169508, 60.8031211342659, 53.7605861642402,</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v xml:space="preserve">    91.622418879056, 91.2684365781711, 90.5606449882785, 84.8672566371681, 80.8917032154257, 55.3966729816002, 48.4985164231525,</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v xml:space="preserve">    93.4218289085546, 93.716814159292, 94.1002949852507, 91.8879056047198, 86.9030008910112, 63.5261550705456, 41.7533888701459,</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v xml:space="preserve">    91.7702575281793, 91.4752722774418, 91.8889436759834, 81.041185477383, 79.8649642297944, 48.9933303921314, 43.4991652176922,</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v xml:space="preserve">    90.5604719764012, 92.212389380531, 90.23598820059, 87.8467806814938, 84.3399164352633, 70.6768224638621, 66.4309379838926,</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v xml:space="preserve">    96.7848337788389, 96.165191740413, 95.1917404129794, 95.1032448377581, 86.8099205010424, 67.4925388627929, 64.4034983001583,</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v xml:space="preserve">    97.6991150442478, 98.0825958702065, 97.0501474926254, 92.4483775811209, 88.5842438083374, 64.0146541060044, 65.6324016643743,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v xml:space="preserve">    94.9557522123894, 94.1889635723493, 95.8997050147493, 92.8912014809817, 90.9144542772861, 76.781979082864, 47.9075078504139,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v xml:space="preserve">    91.3569321533923, 90.7669616519174, 88.1710914454277, 90.3244837758112, 88.5851088677238, 78.8030173271395, 58.2469571536086,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v xml:space="preserve">    95.2802359882006, 94.7492625368731, 94.7787610619469, 95.2509104750041, 87.8050848190728, 75.8159672661528, 60.5530324656788,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v xml:space="preserve">    89.8525073746313, 90.7964601769911, 90.3834808259587, 86.7846607669617, 81.2720698275937, 66.3795534563448, 55.0388844194154,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v xml:space="preserve">    90.3244837758112, 91.1209439528024, 87.4631268436578, 88.6725663716814, 79.9743077362261, 55.5997024195711, 48.1248972741979,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v xml:space="preserve">    91.0029498525074, 91.5929203539823, 90.2958503101238, 78.0256749625862, 75.0240919039092, 51.2641112812395, 46.8467720308999,</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v xml:space="preserve">    95.5162241887906, 95.7522123893805, 94.4837758112094, 93.0383480825959, 86.3737575584564, 63.3063434804799, 46.7204733604962,</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v xml:space="preserve">    93.1860137198419, 92.8320314189569, 93.3040078201368, 88.0006747463213, 81.8356560177856, 66.5548144880146, 56.0125087587263,</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v xml:space="preserve">    94.3952802359882, 93.4808259587021, 94.6902654867257, 94.7225322018357, 89.1486950579157, 75.180754158773, 64.9310115139404,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v xml:space="preserve">    93.9233038348083, 95.6047197640118, 94.9262536873156, 93.4218289085546, 89.8858121610048, 71.7696519866089, 55.6276438377495,</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v xml:space="preserve">    89.4985250737463, 90.7964601769911, 89.7935103244838, 85.7258280780976, 75.6926097976626, 64.4189828631736, 53.7015891140927,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v xml:space="preserve">    92.6548672566372, 93.7463126843658, 93.2153392330383, 92.4190520679245, 88.1877005856452, 77.3983338956219, 70.5055407053694,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v xml:space="preserve">    90.7079646017699, 91.5045977906383, 89.76401179941, 90.2064896755162, 85.1650100779418, 61.4031263246222, 45.392001660914,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v xml:space="preserve">    88.023598820059, 89.8530264102631, 91.3277796520731, 90.3248297995657, 78.5024956963296, 56.9760984091558, 49.1864116471596,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v xml:space="preserve">    88.6725663716814, 90.2064896755162, 90.8259587020649, 87.2566371681416, 79.0046626700923, 55.7734063443455, 38.9777593231775,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v xml:space="preserve">    91.622418879056, 89.9115044247788, 90.9441258142371, 84.6340366266144, 82.7761485826002, 62.8026193998218, 56.2946911305461,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v xml:space="preserve">    83.3333333333333, 82.7728613569322, 83.4218289085546, 79.4407391067397, 72.3352278133894, 64.3396569174474, 60.6434311715499,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v xml:space="preserve">    81.8629053884549, 84.0117994100295, 83.4513274336283, 82.3598820058997, 80.0664365608699, 57.9082864038616, 52.1449147483975,</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v xml:space="preserve">    98.8790560471976, 97.6991150442478, 97.8171091445428, 97.7286135693215, 92.5082396906548, 69.1711866019602, 58.419969030874,</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v xml:space="preserve">    98.8790560471976, 97.6106194690265, 98.141592920354, 95.9587020648968, 88.7020648967552, 80.3990518949126, 72.5098833034888,</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -4303,9 +4303,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v xml:space="preserve">    88.9675516224189, 89.4690265486726, 91.1799410029498, 87.7581120943953, 79.1256844782394, 73.9499476639071, 62.4876512772602,</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v xml:space="preserve">    92.8023598820059, 93.2743362831858, 93.2743362831858, 92.9203539823009, 88.8790560471976, 76.5106099533733, 65.5707229301292,</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v xml:space="preserve">    89.5280235988201, 87.8466076696165, 88.5545722713864, 86.3421828908555, 81.3864306784661, 69.3762921824583, 60.3325288281041,</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v xml:space="preserve">    90.6784660766962, 90.353982300885, 90.7079646017699, 84.7787610619469, 81.7405859912283, 59.4890094204967, 49.9630619642039,</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v xml:space="preserve">    94.4837758112094, 94.9262536873156, 93.2743362831858, 93.0383480825959, 83.2305642782377, 69.6271594044931, 47.6463464216818,</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v xml:space="preserve">    93.7463126843658, 90.6196420384259, 87.3453057552401, 85.7227138643068, 80.5332226057319, 59.6974022266629, 43.9220927516674,</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v xml:space="preserve">    93.4808259587021, 93.1858407079646, 93.3333333333333, 91.5044247787611, 86.1205546760785, 70.3630654244414, 63.4739054836115,</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v xml:space="preserve">    97.1681415929204, 97.8761061946903, 93.5103244837758, 92.8908554572271, 87.1681415929203, 70.1201567487608, 55.6380245503854,</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v xml:space="preserve">    98.7610619469027, 95.7227138643068, 95.3687315634218, 92.5073746312684, 90.0294985250737, 76.0920942222684, 65.691571726399,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v xml:space="preserve">    94.4837758112094, 95.5457227138643, 94.5427728613569, 92.4188790560472, 88.7962698639262, 79.0523274422789, 62.1697419527851,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v xml:space="preserve">    90.4424778761062, 90.3244837758112, 91.622418879056, 89.3510324483776, 87.9941002949853, 77.5363108677411, 60.0246541925103,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v xml:space="preserve">    94.9852507374631, 95.2507374631269, 93.598820058997, 92.7728613569322, 87.9357952923468, 74.4621493265513, 69.1852005640187,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v xml:space="preserve">    91.2684365781711, 91.2389380530973, 89.882005899705, 89.7050147492625, 85.4311888511146, 63.5561726312511, 53.5368818069361,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v xml:space="preserve">    90.5309734513274, 87.5221238938053, 88.6725663716814, 86.8141592920354, 82.7435358437357, 61.134698397045, 50.0008650593863,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v xml:space="preserve">    91.8879056047198, 84.2479606224967, 85.1032448377581, 82.6548672566372, 73.1582453135408, 54.0630109257001, 38.670317217277,</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v xml:space="preserve">    96.7846607669617, 94.5427728613569, 92.094395280236, 91.1209439528024, 89.5033694063097, 76.7429649045407, 55.4630230365315,</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v xml:space="preserve">    93.1563421828909, 93.1563421828909, 91.4454277286136, 89.0855457227139, 74.9687281031843, 71.8367805949878, 58.8185018901548,</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v xml:space="preserve">    97.5516224188791, 96.2241887905605, 94.3362831858407, 94.3362831858407, 92.242060917482, 75.9478888225677, 61.8819366949541,</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v xml:space="preserve">    93.4218289085546, 93.0678466076696, 88.4955752212389, 87.6991150442478, 84.1303125459563, 67.9555186463551, 54.0101557971955,</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v xml:space="preserve">    91.858407079646, 86.5781710914454, 83.7758112094395, 82.7138643067847, 74.415349613751, 53.6179378714349, 45.7888044014221,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v xml:space="preserve">    95.6342182890855, 92.1828908554572, 90.8849557522124, 89.9705014749263, 85.222450021194, 71.1821036514157, 63.5001167830172,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v xml:space="preserve">    92.4483775811209, 91.0029498525074, 90.117994100295, 87.6106194690265, 86.9911504424779, 67.3821572850976, 50.7728440557444,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v xml:space="preserve">    93.7463126843658, 93.2448377581121, 92.6253687315634, 91.5929203539823, 91.4454277286136, 74.6815283869238, 55.1280720421457,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v xml:space="preserve">    94.2477876106195, 91.8879056047198, 94.0412979351032, 91.0914454277286, 88.3777541328212, 76.0500523360929, 54.4818726805595,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v xml:space="preserve">    93.4218289085546, 89.0855457227139, 92.094395280236, 89.1740412979351, 88.141592920354, 61.1369475514494, 52.3334976946167,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v xml:space="preserve">    85.7227138643068, 84.2477876106195, 84.7197640117994, 85.1622418879056, 79.5368472045606, 62.3309890223964, 43.2160312805474,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v xml:space="preserve">    87.4336283185841, 85.2802359882006, 86.6666666666667, 86.7551622418879, 83.5110165312849, 63.964826685352, 55.6637168141593,</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v xml:space="preserve">    98.2890855457227, 96.9616519174041, 95.1327433628319, 93.3038348082596, 90.97431638682, 77.1094040605888, 67.762177873511,</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v xml:space="preserve">    98.7610619469027, 93.4513274336283, 93.4218289085546, 90.8849557522124, 88.8790560471976, 81.8465557660533, 64.6075658093928,</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>30</v>
       </c>

--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/append_plv_competitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACB4AE-AE46-4AA4-A27F-615DD726884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CC1AD-1FD2-4E63-BA80-B74ED043188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
@@ -588,7 +588,7 @@
         <v>49.20769210806322</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    90.8554572271386, 90.0884955752212, 87.905604719764, 87.5222969056826, 80.4545887075148, 59.0594209292468, 49.2076921080632,</v>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>46.413463784288787</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    94.1592920353982, 93.1563421828909, 92.3598820058997, 88.2597600325262, 82.7751105113366, 60.002595178159, 46.4134637842888,</v>
       </c>
     </row>
@@ -648,7 +648,7 @@
         <v>45.444164741909532</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    88.141592920354, 88.5250737463127, 87.3746312684366, 82.5958702064897, 71.9140303981868, 58.2669400254328, 45.4441647419095,</v>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>38.147302312303736</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    91.2389380530973, 91.1504424778761, 89.7050147492625, 84.6312684365782, 81.0340054844765, 45.8745317866072, 38.1473023123037,</v>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>41.155286810439527</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    94.9262536873156, 94.188790560472, 93.0088495575221, 85.722886876184, 72.2276144257303, 59.6123668889869, 41.1552868104395,</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
         <v>36.735698405695551</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    94.6017699115044, 92.6548672566372, 91.740412979351, 90.7966331888684, 78.7103694668639, 48.1254163098297, 36.7356984056956,</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>59.770153721052949</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    92.3598820058997, 91.622418879056, 91.6814159292035, 90.8259587020649, 84.9881919393766, 65.6375920206922, 59.7701537210529,</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>54.088184153842157</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    97.2566371681416, 97.1681415929203, 96.3126843657817, 90.8259587020649, 87.9658128530524, 63.1598889263748, 54.0881841538422,</v>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>55.59641519390307</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    97.5811209439528, 97.9351032448378, 96.3716814159292, 91.0619469026549, 80.9819289094196, 70.2005207657506, 55.5964151939031,</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>49.972577617453439</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    96.6076696165192, 96.2241887905605, 96.6076696165192, 90.4719764011799, 80.7771693526761, 58.0763674426249, 49.9725776174534,</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>45.373056860353458</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    91.9174041297935, 91.3864306784661, 90.6784660766962, 88.8200589970502, 77.095217086653, 57.5158954662238, 45.3730568603535,</v>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>50.440228721701743</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    96.6961651917404, 95.1327433628319, 93.834808259587, 91.0326213894584, 82.8912014809817, 58.8070831062552, 50.4402287217017,</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>47.280253289388313</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    92.0058997050147, 87.0796460176991, 85.575221238938, 83.9611069299907, 75.6362079256741, 64.0814366906288, 47.2802532893883,</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>40.855284215261378</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    90.3244837758112, 88.9675516224189, 88.7315634218289, 85.6935613629876, 76.6413204266473, 49.3774167596606, 40.8552842152614,</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>40.121800361594822</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    92.7728613569322, 87.3156342182891, 85.7525584131351, 80.4545887075148, 71.0547669097484, 56.5417520912811, 40.1218003615948,</v>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>48.758293756866408</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    95.3097345132743, 93.1268436578171, 92.7728613569322, 91.3569321533923, 72.8000242216628, 59.4853761710741, 48.7582937568664,</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>49.97136653431258</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    92.2713864306785, 91.7121255374181, 89.5587332070347, 80.4212839211412, 70.8208548516856, 62.5918909333126, 49.9713665343126,</v>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>50.525783095009473</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    97.1091445427729, 95.0442477876106, 94.2182890855457, 90.2654867256637, 83.8094620195676, 73.0375695291482, 50.5257830950095,</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>47.580601908321007</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    92.0648967551622, 92.5663716814159, 91.976401179941, 84.8381041358489, 75.992093357209, 57.9681485133954, 47.580601908321,</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>49.586155589581217</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    88.9087275841487, 81.6519174041298, 82.2125623924082, 81.0327944013357, 76.3777368316335, 59.9795845984827, 49.5861555895812,</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>50.515748406128083</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    94.5132743362832, 93.2155122449156, 92.0058997050147, 90.0626302995701, 84.1705378074205, 65.8742722687913, 50.5157484061281,</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>35.936470038668148</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    92.0353982300885, 90.2654867256637, 89.9705014749263, 77.8804314916219, 64.7484839834255, 47.4351854254795, 35.9364700386681,</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>35.293903926504562</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    93.3038348082596, 93.0383480825959, 90.353982300885, 82.1245858528188, 71.8710369466864, 47.0466872550801, 35.2939039265046,</v>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>39.929151636259817</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    92.6843657817109, 91.976401179941, 90.117994100295, 83.9823008849557, 72.0504502634106, 53.9085978252407, 39.9291516362598,</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>50.376387338990817</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    92.5958702064897, 87.2863087050926, 86.6080156402737, 84.9855967612176, 78.7367537781469, 66.9845759911418, 50.3763873389908,</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>46.676009308038999</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    85.1917404129794, 84.5722713864307, 82.360055017777, 81.595342520264, 73.8387875327641, 60.5759565394164, 46.676009308039,</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>46.577306032059099</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    85.5457227138643, 83.0973451327434, 80.3246567876885, 76.7324111800275, 68.2206593482643, 56.14892862395, 46.5773060320591,</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>65.203072690940232</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    98.259587020649, 97.0796460176991, 97.7286135693215, 91.0324483775811, 87.0501474926254, 72.8933641294475, 65.2030726909402,</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>75.160079239439796</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    98.7905604719764, 93.4218289085546, 92.3893805309735, 90.3834808259587, 83.7777143400894, 78.9149560117302, 75.1600792394398,</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>69.62612133322952</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    98.1710914454277, 97.8171091445428, 98.377581120944, 98.5550913070182, 97.3182293964481, 88.4654711545948, 69.6261213332295,</v>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>51.791451483144307</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    82.3893805309735, 82.2418879056047, 80.0001730118773, 75.9293765517003, 73.3643889653025, 56.639503801936, 51.7914514831443,</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
         <v>44.941824756269519</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    94.3657817109144, 94.8377581120944, 93.0973451327434, 93.0383480825959, 90.7374631268437, 66.1593093365859, 44.9418247562695,</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>58.574209119456057</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    88.5250737463127, 89.4100294985251, 89.4100294985251, 90.0589970501475, 88.2300884955752, 71.6404121142916, 58.5742091194561,</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>49.123002794141819</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    86.6371681415929, 84.4542772861357, 81.686260261767, 77.414337494269, 69.2367581034438, 52.8303013001843, 49.1230027941418,</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
         <v>44.46361992750802</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    92.212389380531, 94.8082595870206, 93.6578171091445, 87.4072440073011, 84.8484848484848, 46.9128625680153, 44.463619927508,</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>34.807135009818417</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    86.7553352537652, 89.4988710975008, 84.5722713864307, 76.1178729919809, 77.1826745906106, 48.700680801737, 34.8071350098184,</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
         <v>61.445946764245363</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    91.5044247787611, 91.7994100294985, 92.5368731563422, 87.1100096021592, 83.1401655723666, 71.9438749470151, 61.4459467642454,</v>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>65.376257580082864</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    90.1769911504425, 91.1209439528024, 89.1445427728614, 87.3156342182891, 83.3957906210261, 72.4084118374726, 65.3762575800829,</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>62.613084888277577</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    95.811209439528, 95.6342182890856, 94.8672566371681, 94.8082595870206, 88.6725663716814, 75.7948598171264, 62.6130848882776,</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>67.889514615178328</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    94.1002949852507, 95.3097345132743, 94.1592920353982, 92.3598820058997, 91.0619469026549, 73.3636104118548, 67.8895146151783,</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         <v>66.860872498897052</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    90.23598820059, 89.5870206489676, 88.4070796460177, 87.9351032448378, 86.2536873156342, 69.1416880768865, 66.8608724988971,</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>58.193150459779062</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    94.7492625368731, 94.6902654867257, 93.1563421828909, 93.834808259587, 91.4159292035398, 68.1480808657514, 58.1931504597791,</v>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
         <v>39.357087864081869</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    92.3008849557522, 92.3598820058997, 82.4778761061947, 78.5545722713864, 81.9469026548673, 55.7402745698492, 39.3570878640819,</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>50.657964169240223</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    90.3244837758112, 89.9127155079196, 89.2038858467634, 75.8687358887188, 71.1100442045346, 54.3201065753164, 50.6579641692402,</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         <v>44.75618301196377</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    88.4070796460177, 89.6755162241888, 88.7610619469027, 86.9911504424779, 84.4837758112094, 52.3769236758104, 44.7561830119638,</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>56.865024783951412</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    94.0709694720543, 93.2153392330383, 95.1032448377581, 93.8643067846608, 90.9144542772861, 67.7338904315781, 56.8650247839514,</v>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
         <v>70.205970639884441</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    95.3097345132743, 93.8054827463905, 94.1006410090053, 94.1299665222018, 91.0329674132129, 77.7345824790872, 70.2059706398844,</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         <v>47.995484390003377</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    96.2241887905605, 95.4867256637168, 95.8407079646018, 95.929203539823, 93.3347174283515, 75.5666571510134, 47.9954843900034,</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>42.782896045813537</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    89.2625368731563, 93.2155122449156, 94.8377581120944, 93.3925033953581, 89.2054429536588, 67.6562946046246, 42.7828960458135,</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>40.564624261455549</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    91.6814159292035, 87.3746312684366, 80.5899705014749, 76.283185840708, 70.0804505229284, 52.9660291178989, 40.5646242614555,</v>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>51.115407572729858</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    94.424778761062, 94.8082595870206, 93.716814159292, 94.7787610619469, 91.713336620559, 71.7648076540454, 51.1154075727299,</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
         <v>56.985268038650851</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    91.0619469026549, 88.259587020649, 86.4306784660767, 86.047197640118, 82.2724245019421, 65.5546328255435, 56.9852680386509,</v>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
         <v>54.397702402269921</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    94.1297935103245, 94.0412979351032, 94.1891365842265, 92.1830638673345, 85.8422650714972, 60.2552790249051, 54.3977024022699,</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>41.024576337165549</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    92.094395280236, 91.4749262536873, 90.8849557522124, 88.3480825958702, 88.023598820059, 63.7220910215486, 41.0245763371655,</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>51.778562098288049</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    88.2601060562808, 87.3177103608163, 86.4936547894013, 81.6645472711702, 79.7604650559261, 56.7677056029896, 51.778562098288,</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>51.524753674339742</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    85.7227138643068, 85.811209439528, 86.2241887905605, 84.9852507374631, 84.0117994100295, 61.9756226264933, 51.5247536743397,</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>48.963918372996297</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    88.3185840707965, 86.6961651917404, 88.0825958702065, 86.3126843657817, 86.8731563421829, 58.8029308212009, 48.9639183729963,</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>44.607306291576911</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    85.3428662877706, 81.0657531639547, 76.9735897369354, 75.3494407391067, 74.2028045225305, 51.0360816270037, 44.6073062915769,</v>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
         <v>57.418403273384719</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    97.9646017699115, 98.6430678466077, 95.6944264223739, 90.9853891469649, 90.3705914411024, 76.9877767108712, 57.4184032733847,</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
         <v>50.242735663803323</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    93.1268436578171, 93.2448377581121, 92.9793510324484, 93.2745092950631, 92.3598820058997, 91.4261369042985, 50.2427356638033,</v>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
         <v>58.062699504320967</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    82.8970838848087, 80.5058002231853, 79.7088210105624, 71.6636822117838, 70.7082241195858, 61.6415366914939, 58.062699504321,</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>65.468559416603938</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    93.3923303834808, 93.8643067846608, 93.5398230088496, 93.6578171091445, 92.5958702064897, 81.1951660481492, 65.4685594166039,</v>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
         <v>58.927845396586477</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    87.2271386430678, 87.787610619469, 87.787610619469, 87.5811209439528, 85.7560186506804, 69.3038002058841, 58.9278453965865,</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>60.966357840465747</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    88.52524675819, 88.5250737463127, 88.4070796460177, 88.7020648967552, 83.8070398532859, 72.8034844592081, 60.9663578404657,</v>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>64.889315651519468</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    95.3392330383481, 94.6902654867257, 95.1917404129794, 93.8688050934697, 92.3329786589849, 85.5336983883944, 64.8893156515195,</v>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
         <v>57.951106843484808</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    93.3923303834808, 92.5368731563422, 92.0648967551622, 91.976401179941, 91.7109144542773, 75.8106038979576, 57.9511068434848,</v>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
         <v>64.459900172146817</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    96.4306784660767, 96.3126843657817, 96.3716814159292, 96.0176991150443, 93.0090225693994, 81.3383333765863, 64.4599001721468,</v>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
         <v>62.131419821970781</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    95.6637168141593, 95.4572271386431, 95.4867256637168, 95.1032448377581, 89.5307917888563, 83.4365349181221, 62.1314198219708,</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>73.037223505393655</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    95.1917404129794, 95.3687315634218, 95.7817109144543, 94.9852507374631, 94.8377581120944, 84.081869220322, 73.0372235053937,</v>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
         <v>64.450125001081318</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    92.5073746312684, 93.0383480825959, 92.212389380531, 92.4190520679245, 89.2427270132095, 78.4311282969576, 64.4501250010813,</v>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
         <v>66.479121791710995</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    90.2654867256637, 90.1769911504425, 90.7964601769911, 89.882005899705, 87.2293877974723, 74.7778094966219, 66.479121791711,</v>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
         <v>61.551484009377248</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    91.7994100294985, 90.7374631268437, 91.5634218289086, 90.265659737541, 86.4318895492176, 69.8317459493594, 61.5514840093772,</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
         <v>60.13763094836461</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    90.7669616519174, 90.5899705014749, 90.23598820059, 89.2330383480826, 88.259587020649, 67.9714357390635, 60.1376309483646,</v>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
         <v>51.391101999152241</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    88.1716104810595, 89.1445427728614, 89.3805309734513, 88.6430678466077, 88.2300884955752, 68.3248990043166, 51.3911019991522,</v>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
         <v>53.989740395678169</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    91.9469026548673, 92.094395280236, 92.7728613569322, 90.5899705014749, 82.0093599425601, 69.1715326257148, 53.9897403956782,</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
         <v>57.014420539970068</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    94.4542772861357, 94.6017699115044, 94.2182890855457, 93.5988200589971, 92.6548672566372, 79.3935068642462, 57.0144205399701,</v>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
         <v>65.395288886582065</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    90.5018209500082, 91.5339233038348, 91.1801140148271, 90.4129793510324, 89.2370176212597, 77.6063806780335, 65.3952888865821,</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
         <v>77.340547928615294</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    95.6342182890856, 95.3687315634218, 95.3687315634218, 94.6312684365782, 90.4131523629097, 85.1662211610827, 77.3405479286153,</v>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
         <v>54.571579338921623</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    92.5372191800967, 94.1594650472755, 93.5103244837758, 93.5753769496276, 90.2365072362218, 69.4256870734176, 54.5715793389216,</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
         <v>47.879047396603781</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    87.787610619469, 84.2182890855457, 84.9557522123894, 84.4542772861357, 80.2123720793432, 56.7503179093245, 47.8790473966038,</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>54.62348290210123</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    88.9380530973451, 88.7317364337062, 88.141592920354, 89.5575221238938, 87.1389890916011, 74.5057483196221, 54.6234829021012,</v>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
         <v>53.15426604036368</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    85.8702064896755, 85.2212389380531, 86.9026548672566, 84.5427728613569, 81.3015683526674, 64.5268557686485, 53.1542660403637,</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
         <v>68.642981340669024</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    90.353982300885, 89.2330383480826, 90.1474926253687, 89.6755162241888, 86.963555048054, 77.7823337572124, 68.642981340669,</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
         <v>59.51989204058858</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    89.7050147492625, 89.5870206489676, 89.8525073746313, 89.7345132743363, 83.6104118547738, 70.4153150113755, 59.5198920405886,</v>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
         <v>49.746970129499388</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    89.882005899705, 89.7935103244838, 88.3480825958702, 87.3746312684366, 86.2920094464485, 79.0153894064828, 49.7469701294994,</v>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
         <v>62.597340807446429</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    84.8967551622419, 84.2182890855457, 83.7758112094395, 83.9823008849557, 83.0709608214604, 69.0178115727645, 62.5973408074464,</v>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>49.523006254379361</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    86.165191740413, 85.6047197640118, 86.9026548672566, 83.8996877135615, 85.9298955873321, 66.6631199231827, 49.5230062543794,</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         <v>42.515852213254433</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    88.6767186567358, 89.2083841555723, 86.5585342433758, 74.9598179915051, 68.4860595679893, 56.925405929117, 42.5158522132544,</v>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
         <v>66.881028382598458</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    94.6906115104802, 94.8377581120944, 96.2543793631433, 95.3687315634218, 91.6581458317113, 79.6811391101999, 66.8810283825985,</v>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
         <v>53.295962767844017</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    86.3126843657817, 87.1978131298714, 88.318930094551, 85.1931245079975, 85.3990951478819, 69.5698924731183, 53.295962767844,</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>54.876945302295013</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    89.5870206489676, 89.4100294985251, 90.3834808259587, 84.8674296490454, 84.9262536873156, 73.3988183288783, 54.876945302295,</v>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         <v>53.742160399311409</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    94.7787610619469, 94.070796460177, 93.7463126843658, 91.2096125399009, 90.6786390885734, 71.7831469130356, 53.7421603993114,</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
         <v>53.760586164240181</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    87.0206489675516, 87.9646017699115, 86.6666666666667, 86.7551622418879, 82.4401595169508, 60.8031211342659, 53.7605861642402,</v>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
         <v>48.498516423152452</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    91.622418879056, 91.2684365781711, 90.5606449882785, 84.8672566371681, 80.8917032154257, 55.3966729816002, 48.4985164231525,</v>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
         <v>41.753388870145933</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    93.4218289085546, 93.716814159292, 94.1002949852507, 91.8879056047198, 86.9030008910112, 63.5261550705456, 41.7533888701459,</v>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
         <v>43.499165217692187</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    91.7702575281793, 91.4752722774418, 91.8889436759834, 81.041185477383, 79.8649642297944, 48.9933303921314, 43.4991652176922,</v>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
         <v>66.430937983892591</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    90.5604719764012, 92.212389380531, 90.23598820059, 87.8467806814938, 84.3399164352633, 70.6768224638621, 66.4309379838926,</v>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
         <v>64.403498300158304</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    96.7848337788389, 96.165191740413, 95.1917404129794, 95.1032448377581, 86.8099205010424, 67.4925388627929, 64.4034983001583,</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
         <v>65.632401664374271</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    97.6991150442478, 98.0825958702065, 97.0501474926254, 92.4483775811209, 88.5842438083374, 64.0146541060044, 65.6324016643743,</v>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
         <v>47.907507850413943</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    94.9557522123894, 94.1889635723493, 95.8997050147493, 92.8912014809817, 90.9144542772861, 76.781979082864, 47.9075078504139,</v>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
         <v>58.246957153608591</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    91.3569321533923, 90.7669616519174, 88.1710914454277, 90.3244837758112, 88.5851088677238, 78.8030173271395, 58.2469571536086,</v>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
         <v>60.553032465678768</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    95.2802359882006, 94.7492625368731, 94.7787610619469, 95.2509104750041, 87.8050848190728, 75.8159672661528, 60.5530324656788,</v>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>55.038884419415403</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    89.8525073746313, 90.7964601769911, 90.3834808259587, 86.7846607669617, 81.2720698275937, 66.3795534563448, 55.0388844194154,</v>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
         <v>48.12489727419787</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    90.3244837758112, 91.1209439528024, 87.4631268436578, 88.6725663716814, 79.9743077362261, 55.5997024195711, 48.1248972741979,</v>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
         <v>46.84677203089992</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    91.0029498525074, 91.5929203539823, 90.2958503101238, 78.0256749625862, 75.0240919039092, 51.2641112812395, 46.8467720308999,</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
         <v>46.7204733604962</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    95.5162241887906, 95.7522123893805, 94.4837758112094, 93.0383480825959, 86.3737575584564, 63.3063434804799, 46.7204733604962,</v>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
         <v>56.012508758726291</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    93.1860137198419, 92.8320314189569, 93.3040078201368, 88.0006747463213, 81.8356560177856, 66.5548144880146, 56.0125087587263,</v>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
         <v>64.931011513940433</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    94.3952802359882, 93.4808259587021, 94.6902654867257, 94.7225322018357, 89.1486950579157, 75.180754158773, 64.9310115139404,</v>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
         <v>55.62764383774946</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    93.9233038348083, 95.6047197640118, 94.9262536873156, 93.4218289085546, 89.8858121610048, 71.7696519866089, 55.6276438377495,</v>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         <v>53.701589114092677</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    89.4985250737463, 90.7964601769911, 89.7935103244838, 85.7258280780976, 75.6926097976626, 64.4189828631736, 53.7015891140927,</v>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
         <v>70.505540705369427</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    92.6548672566372, 93.7463126843658, 93.2153392330383, 92.4190520679245, 88.1877005856452, 77.3983338956219, 70.5055407053694,</v>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
         <v>45.392001660914033</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    90.7079646017699, 91.5045977906383, 89.76401179941, 90.2064896755162, 85.1650100779418, 61.4031263246222, 45.392001660914,</v>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>49.186411647159566</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    88.023598820059, 89.8530264102631, 91.3277796520731, 90.3248297995657, 78.5024956963296, 56.9760984091558, 49.1864116471596,</v>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
         <v>38.977759323177537</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    88.6725663716814, 90.2064896755162, 90.8259587020649, 87.2566371681416, 79.0046626700923, 55.7734063443455, 38.9777593231775,</v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
         <v>56.294691130546113</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    91.622418879056, 89.9115044247788, 90.9441258142371, 84.6340366266144, 82.7761485826002, 62.8026193998218, 56.2946911305461,</v>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
         <v>60.643431171549921</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    83.3333333333333, 82.7728613569322, 83.4218289085546, 79.4407391067397, 72.3352278133894, 64.3396569174474, 60.6434311715499,</v>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
         <v>52.144914748397483</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    81.8629053884549, 84.0117994100295, 83.4513274336283, 82.3598820058997, 80.0664365608699, 57.9082864038616, 52.1449147483975,</v>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
         <v>58.419969030873972</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    98.8790560471976, 97.6991150442478, 97.8171091445428, 97.7286135693215, 92.5082396906548, 69.1711866019602, 58.419969030874,</v>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>72.509883303488778</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    98.8790560471976, 97.6106194690265, 98.141592920354, 95.9587020648968, 88.7020648967552, 80.3990518949126, 72.5098833034888,</v>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>88.61625100563154</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    98.7905604719764, 99.0855457227139, 98.8790560471976, 98.259587020649, 98.3796572634711, 94.7910449052328, 88.6162510056315,</v>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
         <v>62.487651277260177</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    88.9675516224189, 89.4690265486726, 91.1799410029498, 87.7581120943953, 79.1256844782394, 73.9499476639071, 62.4876512772602,</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
         <v>65.570722930129165</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:I3)&amp;","</f>
         <v xml:space="preserve">    92.8023598820059, 93.2743362831858, 93.2743362831858, 92.9203539823009, 88.8790560471976, 76.5106099533733, 65.5707229301292,</v>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
         <v>60.332528828104053</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C4:I4)&amp;","</f>
         <v xml:space="preserve">    89.5280235988201, 87.8466076696165, 88.5545722713864, 86.3421828908555, 81.3864306784661, 69.3762921824583, 60.3325288281041,</v>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
         <v>49.963061964203852</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    90.6784660766962, 90.353982300885, 90.7079646017699, 84.7787610619469, 81.7405859912283, 59.4890094204967, 49.9630619642039,</v>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
         <v>47.646346421681848</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C6:I6)&amp;","</f>
         <v xml:space="preserve">    94.4837758112094, 94.9262536873156, 93.2743362831858, 93.0383480825959, 83.2305642782377, 69.6271594044931, 47.6463464216818,</v>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
         <v>43.9220927516674</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C7:I7)&amp;","</f>
         <v xml:space="preserve">    93.7463126843658, 90.6196420384259, 87.3453057552401, 85.7227138643068, 80.5332226057319, 59.6974022266629, 43.9220927516674,</v>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
         <v>63.473905483611453</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C8:I8)&amp;","</f>
         <v xml:space="preserve">    93.4808259587021, 93.1858407079646, 93.3333333333333, 91.5044247787611, 86.1205546760785, 70.3630654244414, 63.4739054836115,</v>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
         <v>55.638024550385389</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:I9)&amp;","</f>
         <v xml:space="preserve">    97.1681415929204, 97.8761061946903, 93.5103244837758, 92.8908554572271, 87.1681415929203, 70.1201567487608, 55.6380245503854,</v>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
         <v>65.691571726399019</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C10:I10)&amp;","</f>
         <v xml:space="preserve">    98.7610619469027, 95.7227138643068, 95.3687315634218, 92.5073746312684, 90.0294985250737, 76.0920942222684, 65.691571726399,</v>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
         <v>62.16974195278506</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    94.4837758112094, 95.5457227138643, 94.5427728613569, 92.4188790560472, 88.7962698639262, 79.0523274422789, 62.1697419527851,</v>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
         <v>60.024654192510319</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C12:I12)&amp;","</f>
         <v xml:space="preserve">    90.4424778761062, 90.3244837758112, 91.622418879056, 89.3510324483776, 87.9941002949853, 77.5363108677411, 60.0246541925103,</v>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
         <v>69.185200564018714</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    94.9852507374631, 95.2507374631269, 93.598820058997, 92.7728613569322, 87.9357952923468, 74.4621493265513, 69.1852005640187,</v>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
         <v>53.536881806936051</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:I14)&amp;","</f>
         <v xml:space="preserve">    91.2684365781711, 91.2389380530973, 89.882005899705, 89.7050147492625, 85.4311888511146, 63.5561726312511, 53.5368818069361,</v>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
         <v>50.000865059386328</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:I15)&amp;","</f>
         <v xml:space="preserve">    90.5309734513274, 87.5221238938053, 88.6725663716814, 86.8141592920354, 82.7435358437357, 61.134698397045, 50.0008650593863,</v>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
         <v>38.670317217276967</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:I16)&amp;","</f>
         <v xml:space="preserve">    91.8879056047198, 84.2479606224967, 85.1032448377581, 82.6548672566372, 73.1582453135408, 54.0630109257001, 38.670317217277,</v>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
         <v>55.463023036531453</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:I17)&amp;","</f>
         <v xml:space="preserve">    96.7846607669617, 94.5427728613569, 92.094395280236, 91.1209439528024, 89.5033694063097, 76.7429649045407, 55.4630230365315,</v>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
         <v>58.818501890154756</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:I18)&amp;","</f>
         <v xml:space="preserve">    93.1563421828909, 93.1563421828909, 91.4454277286136, 89.0855457227139, 74.9687281031843, 71.8367805949878, 58.8185018901548,</v>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
         <v>61.881936694954113</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C19:I19)&amp;","</f>
         <v xml:space="preserve">    97.5516224188791, 96.2241887905605, 94.3362831858407, 94.3362831858407, 92.242060917482, 75.9478888225677, 61.8819366949541,</v>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
         <v>54.01015579719548</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    93.4218289085546, 93.0678466076696, 88.4955752212389, 87.6991150442478, 84.1303125459563, 67.9555186463551, 54.0101557971955,</v>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
         <v>45.788804401422148</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C21:I21)&amp;","</f>
         <v xml:space="preserve">    91.858407079646, 86.5781710914454, 83.7758112094395, 82.7138643067847, 74.415349613751, 53.6179378714349, 45.7888044014221,</v>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
         <v>63.500116783017162</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    95.6342182890855, 92.1828908554572, 90.8849557522124, 89.9705014749263, 85.222450021194, 71.1821036514157, 63.5001167830172,</v>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
         <v>50.772844055744429</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C23:I23)&amp;","</f>
         <v xml:space="preserve">    92.4483775811209, 91.0029498525074, 90.117994100295, 87.6106194690265, 86.9911504424779, 67.3821572850976, 50.7728440557444,</v>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
         <v>55.128072042145703</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C24:I24)&amp;","</f>
         <v xml:space="preserve">    93.7463126843658, 93.2448377581121, 92.6253687315634, 91.5929203539823, 91.4454277286136, 74.6815283869238, 55.1280720421457,</v>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
         <v>54.481872680559533</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C25:I25)&amp;","</f>
         <v xml:space="preserve">    94.2477876106195, 91.8879056047198, 94.0412979351032, 91.0914454277286, 88.3777541328212, 76.0500523360929, 54.4818726805595,</v>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
         <v>52.333497694616732</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C26:I26)&amp;","</f>
         <v xml:space="preserve">    93.4218289085546, 89.0855457227139, 92.094395280236, 89.1740412979351, 88.141592920354, 61.1369475514494, 52.3334976946167,</v>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
         <v>43.216031280547412</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C27:I27)&amp;","</f>
         <v xml:space="preserve">    85.7227138643068, 84.2477876106195, 84.7197640117994, 85.1622418879056, 79.5368472045606, 62.3309890223964, 43.2160312805474,</v>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>55.663716814159287</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C28:I28)&amp;","</f>
         <v xml:space="preserve">    87.4336283185841, 85.2802359882006, 86.6666666666667, 86.7551622418879, 83.5110165312849, 63.964826685352, 55.6637168141593,</v>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
         <v>67.762177873511021</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C29:I29)&amp;","</f>
         <v xml:space="preserve">    98.2890855457227, 96.9616519174041, 95.1327433628319, 93.3038348082596, 90.97431638682, 77.1094040605888, 67.762177873511,</v>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
         <v>64.60756580939281</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C30:I30)&amp;","</f>
         <v xml:space="preserve">    98.7610619469027, 93.4513274336283, 93.4218289085546, 90.8849557522124, 88.8790560471976, 81.8465557660533, 64.6075658093928,</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>65.329284855405319</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C31:I31)&amp;","</f>
         <v xml:space="preserve">    96.9911504424779, 98.2300884955752, 96.7551622418879, 93.6578171091445, 94.0412979351032, 79.1080372667584, 65.3292848554053,</v>
       </c>
     </row>
